--- a/Data/Transitions/18901936Translation.xlsx
+++ b/Data/Transitions/18901936Translation.xlsx
@@ -28,22 +28,22 @@
     <t>{1.0: 1.0}</t>
   </si>
   <si>
-    <t>{486.0: 0.15701727550325684, 837.0: 0.002100902288399068}</t>
-  </si>
-  <si>
-    <t>{3.0: 0.7013754525363534}</t>
+    <t>{486.0: 0.15920630519368856, 837.0: 0.002186026782725736}</t>
+  </si>
+  <si>
+    <t>{3.0: 0.6949628567939019}</t>
   </si>
   <si>
     <t>{4.0: 1.0}</t>
   </si>
   <si>
-    <t>{5.0: 0.9881325570980743}</t>
+    <t>{5.0: 0.988177559669864}</t>
   </si>
   <si>
     <t>{6.0: 1.0}</t>
   </si>
   <si>
-    <t>{7.0: 0.9854496071393928}</t>
+    <t>{7.0: 0.9853027630805409}</t>
   </si>
   <si>
     <t>{8.0: 1.0}</t>
@@ -52,7 +52,7 @@
     <t>{9.0: 1.0}</t>
   </si>
   <si>
-    <t>{10.0: 0.9896835717381881}</t>
+    <t>{10.0: 0.9895951735594999}</t>
   </si>
   <si>
     <t>{11.0: 1.0}</t>
@@ -64,7 +64,7 @@
     <t>{13.0: 0.7259633800658852}</t>
   </si>
   <si>
-    <t>{14.0: 0.9690805402261538, 178.0: 0.00016231131309852296, 623.0: 0.0007625438462711606, 696.0: 0.0029159241859711645, 492.0: 1.804702755802187e-05}</t>
+    <t>{14.0: 0.9691308133691171, 178.0: 0.00016329196603527107, 623.0: 0.0007645259938837921, 696.0: 0.002995008319467554, 492.0: 1.842729104452426e-05}</t>
   </si>
   <si>
     <t>{15.0: 1.0}</t>
@@ -73,7 +73,7 @@
     <t>{16.0: 1.0}</t>
   </si>
   <si>
-    <t>{17.0: 0.989010989010989}</t>
+    <t>{17.0: 0.9890756302521009}</t>
   </si>
   <si>
     <t>{18.0: 1.0}</t>
@@ -85,7 +85,7 @@
     <t>{32.0: 1.0}</t>
   </si>
   <si>
-    <t>{34.0: 1.0, 78.0: 0.13866427073974244}</t>
+    <t>{34.0: 1.0, 78.0: 0.12802433291856768}</t>
   </si>
   <si>
     <t>{35.0: 1.0}</t>
@@ -106,13 +106,13 @@
     <t>{45.0: 1.0}</t>
   </si>
   <si>
-    <t>{46.0: 1.0, 90.0: 0.020710491553906, 246.0: 0.01497582965958572, 681.0: 0.0030888723019257, 741.0: 0.006816245384833854, 789.0: 0.0030857033245445683}</t>
+    <t>{46.0: 1.0, 90.0: 0.020732328647176654, 246.0: 0.014966331567818519, 681.0: 0.003093174352485485, 741.0: 0.006816245384833854, 789.0: 0.0030919626462848826}</t>
   </si>
   <si>
     <t>{47.0: 1.0}</t>
   </si>
   <si>
-    <t>{48.0: 1.0, 443.0: 0.03765690376569038, 291.0: 0.0025782349920288987}</t>
+    <t>{48.0: 1.0, 443.0: 0.03748355984217448, 291.0: 0.002574966691196572}</t>
   </si>
   <si>
     <t>{49.0: 1.0}</t>
@@ -130,7 +130,7 @@
     <t>{60.0: 1.0}</t>
   </si>
   <si>
-    <t>{834.0: 0.42733454268782284}</t>
+    <t>{834.0: 0.42673645002733873}</t>
   </si>
   <si>
     <t>{62.0: 1.0}</t>
@@ -142,40 +142,40 @@
     <t>{69.0: 1.0}</t>
   </si>
   <si>
-    <t>{311.0: 0.023259052924791086}</t>
-  </si>
-  <si>
-    <t>{71.0: 0.9823489268718721}</t>
+    <t>{311.0: 0.023413950227830355}</t>
+  </si>
+  <si>
+    <t>{71.0: 0.9826600348172096}</t>
   </si>
   <si>
     <t>{72.0: 1.0}</t>
   </si>
   <si>
-    <t>{73.0: 0.9985699985699986}</t>
+    <t>{73.0: 0.9985652797704447}</t>
   </si>
   <si>
     <t>{74.0: 1.0}</t>
   </si>
   <si>
-    <t>{75.0: 1.0, 917.0: 0.04385213002977653}</t>
+    <t>{75.0: 1.0, 917.0: 0.044165655930525655}</t>
   </si>
   <si>
     <t>{76.0: 1.0}</t>
   </si>
   <si>
-    <t>{77.0: 1.0, 85.0: 0.0009282896263634254}</t>
-  </si>
-  <si>
-    <t>{78.0: 0.8613357292602576}</t>
+    <t>{77.0: 1.0, 85.0: 0.0009250693802035153}</t>
+  </si>
+  <si>
+    <t>{78.0: 0.8719756670814324}</t>
   </si>
   <si>
     <t>{79.0: 1.0}</t>
   </si>
   <si>
-    <t>{764.0: 0.1492238996385286, 757.0: 0.09884409779544716}</t>
-  </si>
-  <si>
-    <t>{81.0: 0.7813887672820841, 172.0: 0.0016469978443069643}</t>
+    <t>{764.0: 0.1490527567751253, 757.0: 0.12341023780423667}</t>
+  </si>
+  <si>
+    <t>{81.0: 0.7794141476066929, 172.0: 0.0016372181441421784}</t>
   </si>
   <si>
     <t>{82.0: 1.0}</t>
@@ -187,10 +187,10 @@
     <t>{84.0: 1.0}</t>
   </si>
   <si>
-    <t>{85.0: 0.9990717103736366}</t>
-  </si>
-  <si>
-    <t>{86.0: 0.3966038535953838}</t>
+    <t>{85.0: 0.9990749306197965}</t>
+  </si>
+  <si>
+    <t>{86.0: 0.39472598793346425}</t>
   </si>
   <si>
     <t>{87.0: 1.0}</t>
@@ -202,13 +202,13 @@
     <t>{89.0: 1.0}</t>
   </si>
   <si>
-    <t>{90.0: 0.9458762626498309}</t>
-  </si>
-  <si>
-    <t>{91.0: 0.9996668959460804, 92.0: 0.0022894964743212487}</t>
-  </si>
-  <si>
-    <t>{92.0: 0.895849769001016}</t>
+    <t>{90.0: 0.9458544255565603}</t>
+  </si>
+  <si>
+    <t>{91.0: 0.9996710680889056, 92.0: 0.002229346176174735}</t>
+  </si>
+  <si>
+    <t>{92.0: 0.8964991540825867}</t>
   </si>
   <si>
     <t>{93.0: 1.0}</t>
@@ -226,7 +226,7 @@
     <t>{97.0: 1.0}</t>
   </si>
   <si>
-    <t>{98.0: 0.3186909432682987}</t>
+    <t>{98.0: 0.3217218663429814}</t>
   </si>
   <si>
     <t>{99.0: 1.0}</t>
@@ -244,46 +244,46 @@
     <t>{103.0: 1.0}</t>
   </si>
   <si>
-    <t>{92.0: 0.04807960898129882}</t>
+    <t>{92.0: 0.04749038575004915}</t>
   </si>
   <si>
     <t>{105.0: 1.0}</t>
   </si>
   <si>
-    <t>{543.0: 0.38163023499160054, 86.0: 0.16850881316792723}</t>
-  </si>
-  <si>
-    <t>{108.0: 0.9912172052696768, 144.0: 0.008141609952717104}</t>
-  </si>
-  <si>
-    <t>{109.0: 1.0, 110.0: 0.0231353591160221}</t>
-  </si>
-  <si>
-    <t>{110.0: 0.976864640883978}</t>
+    <t>{543.0: 0.3814859516448283, 86.0: 0.1685234797025494}</t>
+  </si>
+  <si>
+    <t>{108.0: 0.9912221471978393, 144.0: 0.008141467939881864}</t>
+  </si>
+  <si>
+    <t>{109.0: 1.0, 110.0: 0.02275042444821732}</t>
+  </si>
+  <si>
+    <t>{110.0: 0.9772495755517827}</t>
   </si>
   <si>
     <t>{139.0: 0.6022249604757921}</t>
   </si>
   <si>
-    <t>{141.0: 0.03256451940662467}</t>
-  </si>
-  <si>
-    <t>{141.0: 0.678207582535171, 762.0: 0.7010364992187316}</t>
-  </si>
-  <si>
-    <t>{142.0: 0.6824977236609803}</t>
-  </si>
-  <si>
-    <t>{144.0: 0.9569793200618738}</t>
+    <t>{141.0: 0.0324770735167452}</t>
+  </si>
+  <si>
+    <t>{141.0: 0.6782688852956832, 762.0: 0.7010364992187316}</t>
+  </si>
+  <si>
+    <t>{142.0: 0.6824606825091657}</t>
+  </si>
+  <si>
+    <t>{144.0: 0.9569578564997833}</t>
   </si>
   <si>
     <t>{145.0: 1.0}</t>
   </si>
   <si>
-    <t>{146.0: 0.6945303597590754}</t>
-  </si>
-  <si>
-    <t>{147.0: 0.9236299600867051, 764.0: 0.02364448224537529, 733.0: 0.0815552394499763}</t>
+    <t>{146.0: 0.7349950571953114}</t>
+  </si>
+  <si>
+    <t>{147.0: 0.9177237229897864, 764.0: 0.023617364709880215, 733.0: 0.07612303606992697}</t>
   </si>
   <si>
     <t>{148.0: 1.0}</t>
@@ -298,10 +298,10 @@
     <t>{151.0: 1.0}</t>
   </si>
   <si>
-    <t>{152.0: 1.0, 975.0: 0.0008218266525426588}</t>
-  </si>
-  <si>
-    <t>{162.0: 0.6392101731740047}</t>
+    <t>{152.0: 1.0, 975.0: 0.0008217910235256162}</t>
+  </si>
+  <si>
+    <t>{162.0: 0.6433579685427326}</t>
   </si>
   <si>
     <t>{163.0: 1.0}</t>
@@ -310,7 +310,7 @@
     <t>{164.0: 1.0}</t>
   </si>
   <si>
-    <t>{165.0: 0.9615337347916922, 914.0: 0.02521597011440579}</t>
+    <t>{165.0: 0.9614104302798668, 914.0: 0.02521597011440579}</t>
   </si>
   <si>
     <t>{166.0: 1.0}</t>
@@ -319,7 +319,7 @@
     <t>{167.0: 1.0}</t>
   </si>
   <si>
-    <t>{168.0: 0.9984929829518696}</t>
+    <t>{168.0: 0.9984805318138652}</t>
   </si>
   <si>
     <t>{169.0: 1.0}</t>
@@ -328,16 +328,16 @@
     <t>{170.0: 1.0}</t>
   </si>
   <si>
-    <t>{171.0: 0.6837236456320245}</t>
-  </si>
-  <si>
-    <t>{172.0: 0.9411677681411907, 81.0: 0.003681063393975768}</t>
-  </si>
-  <si>
-    <t>{173.0: 0.8485467756584922, 404.0: 0.0018815796195495028}</t>
-  </si>
-  <si>
-    <t>{174.0: 1.0, 534.0: 0.049758715535563755}</t>
+    <t>{171.0: 0.6866020196252851}</t>
+  </si>
+  <si>
+    <t>{172.0: 0.9404908672461181, 81.0: 0.0036717947657656834}</t>
+  </si>
+  <si>
+    <t>{173.0: 0.8485467756584922, 404.0: 0.0018972420324217974}</t>
+  </si>
+  <si>
+    <t>{174.0: 1.0, 534.0: 0.04731313717367446}</t>
   </si>
   <si>
     <t>{175.0: 1.0}</t>
@@ -349,25 +349,25 @@
     <t>{562.0: 0.3589476967869398}</t>
   </si>
   <si>
-    <t>{178.0: 0.9998376886869015, 14.0: 0.030919459773846237}</t>
-  </si>
-  <si>
-    <t>{179.0: 1.0, 180.0: 0.031122687395578948}</t>
-  </si>
-  <si>
-    <t>{180.0: 0.925063318636872, 410.0: 0.024561824090018856}</t>
+    <t>{178.0: 0.9998367080339647, 14.0: 0.030869186630882887}</t>
+  </si>
+  <si>
+    <t>{179.0: 1.0, 180.0: 0.028080106910640466}</t>
+  </si>
+  <si>
+    <t>{180.0: 0.9351732379460341, 410.0: 0.02435244277531649}</t>
   </si>
   <si>
     <t>{181.0: 1.0}</t>
   </si>
   <si>
-    <t>{182.0: 0.6463539703298242}</t>
-  </si>
-  <si>
-    <t>{182.0: 0.16269738981458448}</t>
-  </si>
-  <si>
-    <t>{184.0: 0.997979117547996, 171.0: 0.058624217874188374, 593.0: 0.04805087026806601, 778.0: 0.0005968011458582001}</t>
+    <t>{182.0: 0.6452906075291367}</t>
+  </si>
+  <si>
+    <t>{182.0: 0.16318645920505354}</t>
+  </si>
+  <si>
+    <t>{184.0: 0.9979626485568761, 171.0: 0.05859717183288125, 593.0: 0.047934463496061015, 778.0: 0.0005811250581125058}</t>
   </si>
   <si>
     <t>{185.0: 0.9243525670149931}</t>
@@ -376,16 +376,16 @@
     <t>{202.0: 1.0}</t>
   </si>
   <si>
-    <t>{203.0: 0.8504763219660362}</t>
-  </si>
-  <si>
-    <t>{204.0: 0.7114100886721801, 857.0: 0.004863297494749244}</t>
+    <t>{203.0: 0.8511544804837823}</t>
+  </si>
+  <si>
+    <t>{204.0: 0.7113991598744435, 857.0: 0.004861501441056218}</t>
   </si>
   <si>
     <t>{205.0: 1.0}</t>
   </si>
   <si>
-    <t>{206.0: 0.8527388535031847, 785.0: 0.12581933996307887}</t>
+    <t>{206.0: 0.8527388535031847, 785.0: 0.1295359842365321}</t>
   </si>
   <si>
     <t>{207.0: 1.0}</t>
@@ -400,10 +400,10 @@
     <t>{210.0: 1.0}</t>
   </si>
   <si>
-    <t>{211.0: 0.970627863109674}</t>
-  </si>
-  <si>
-    <t>{212.0: 1.0, 681.0: 0.13071645248533406}</t>
+    <t>{211.0: 0.9704727075714479}</t>
+  </si>
+  <si>
+    <t>{212.0: 1.0, 681.0: 0.13072427439544276}</t>
   </si>
   <si>
     <t>{213.0: 1.0}</t>
@@ -412,16 +412,16 @@
     <t>{214.0: 1.0}</t>
   </si>
   <si>
-    <t>{897.0: 0.24406536889838756}</t>
-  </si>
-  <si>
-    <t>{265.0: 0.18569618736466076}</t>
-  </si>
-  <si>
-    <t>{217.0: 0.9946335737045111}</t>
-  </si>
-  <si>
-    <t>{218.0: 1.0, 409.0: 0.12090597299870061}</t>
+    <t>{897.0: 0.24357767221532678}</t>
+  </si>
+  <si>
+    <t>{265.0: 0.13819736127734558}</t>
+  </si>
+  <si>
+    <t>{217.0: 0.9945955075156223}</t>
+  </si>
+  <si>
+    <t>{218.0: 1.0, 409.0: 0.12102073873692254}</t>
   </si>
   <si>
     <t>{480.0: 0.36969409532843256}</t>
@@ -430,10 +430,10 @@
     <t>{221.0: 1.0, 999.0: 1.0}</t>
   </si>
   <si>
-    <t>{222.0: 1.0, 490.0: 0.002387696028954705, 503.0: 0.0014675052410901468}</t>
-  </si>
-  <si>
-    <t>{223.0: 0.9808052434456929}</t>
+    <t>{222.0: 1.0, 490.0: 0.0023962824030009516, 503.0: 0.0014743049705139006}</t>
+  </si>
+  <si>
+    <t>{223.0: 0.9809390980939098}</t>
   </si>
   <si>
     <t>{225.0: 1.0}</t>
@@ -442,10 +442,10 @@
     <t>{226.0: 0.9303888093402357}</t>
   </si>
   <si>
-    <t>{227.0: 0.6596534653465347}</t>
-  </si>
-  <si>
-    <t>{228.0: 1.0, 738.0: 0.003872216844143272}</t>
+    <t>{227.0: 0.6191135734072022}</t>
+  </si>
+  <si>
+    <t>{228.0: 1.0, 738.0: 0.003875968992248062}</t>
   </si>
   <si>
     <t>{229.0: 1.0}</t>
@@ -478,10 +478,13 @@
     <t>{595.0: 0.2768752160387141}</t>
   </si>
   <si>
-    <t>{240.0: 1.0, 241.0: 0.0005244755244755245}</t>
-  </si>
-  <si>
-    <t>{241.0: 0.9994755244755245}</t>
+    <t>{240.0: 1.0, 241.0: 0.0005183137525915688}</t>
+  </si>
+  <si>
+    <t>{241.0: 0.9994816862474084}</t>
+  </si>
+  <si>
+    <t>{242.0: 1.0}</t>
   </si>
   <si>
     <t>{243.0: 1.0}</t>
@@ -490,7 +493,7 @@
     <t>{244.0: 1.0}</t>
   </si>
   <si>
-    <t>{246.0: 0.6411979451724658}</t>
+    <t>{246.0: 0.6414567650874317}</t>
   </si>
   <si>
     <t>{247.0: 1.0}</t>
@@ -499,13 +502,13 @@
     <t>{248.0: 1.0}</t>
   </si>
   <si>
-    <t>{249.0: 0.7313874844284285}</t>
-  </si>
-  <si>
-    <t>{581.0: 0.2846212700841622, 144.0: 0.009906792712120634}</t>
-  </si>
-  <si>
-    <t>{251.0: 0.4466893330379997}</t>
+    <t>{249.0: 0.7307115182901823}</t>
+  </si>
+  <si>
+    <t>{581.0: 0.2844347351174222, 144.0: 0.009906457384172054}</t>
+  </si>
+  <si>
+    <t>{251.0: 0.46403865886525403}</t>
   </si>
   <si>
     <t>{252.0: 1.0}</t>
@@ -544,13 +547,13 @@
     <t>{263.0: 1.0}</t>
   </si>
   <si>
-    <t>{264.0: 0.6835574988873149}</t>
-  </si>
-  <si>
-    <t>{265.0: 0.3553158701756005}</t>
-  </si>
-  <si>
-    <t>{834.0: 0.04639473584516582, 887.0: 0.17626442298656703}</t>
+    <t>{264.0: 0.682497900938089}</t>
+  </si>
+  <si>
+    <t>{265.0: 0.4028146962629157}</t>
+  </si>
+  <si>
+    <t>{834.0: 0.04700377208796266, 887.0: 0.17737532539717435}</t>
   </si>
   <si>
     <t>{268.0: 0.8952197553239691}</t>
@@ -562,7 +565,7 @@
     <t>{271.0: 1.0}</t>
   </si>
   <si>
-    <t>{272.0: 1.0, 203.0: 0.14952367803396382}</t>
+    <t>{272.0: 1.0, 203.0: 0.1488455195162177}</t>
   </si>
   <si>
     <t>{273.0: 1.0}</t>
@@ -571,16 +574,16 @@
     <t>{274.0: 1.0}</t>
   </si>
   <si>
-    <t>{686.0: 0.3946098826756189}</t>
-  </si>
-  <si>
-    <t>{276.0: 0.6655472862588492}</t>
-  </si>
-  <si>
-    <t>{277.0: 0.646213874588918, 180.0: 0.012934898029311758}</t>
-  </si>
-  <si>
-    <t>{278.0: 1.0, 767.0: 0.007574832009773977, 757.0: 0.019383998992673238}</t>
+    <t>{686.0: 0.39461948541510167}</t>
+  </si>
+  <si>
+    <t>{276.0: 0.6650608980185421}</t>
+  </si>
+  <si>
+    <t>{277.0: 0.6460662893452803, 180.0: 0.021205936440805425}</t>
+  </si>
+  <si>
+    <t>{278.0: 1.0, 767.0: 0.006935123042505592, 757.0: 0.02227579891858211}</t>
   </si>
   <si>
     <t>{279.0: 1.0}</t>
@@ -592,7 +595,7 @@
     <t>{281.0: 1.0}</t>
   </si>
   <si>
-    <t>{182.0: 0.19094863985559138}</t>
+    <t>{182.0: 0.19152293326580971}</t>
   </si>
   <si>
     <t>{283.0: 1.0}</t>
@@ -604,22 +607,22 @@
     <t>{285.0: 1.0}</t>
   </si>
   <si>
-    <t>{909.0: 0.1776004475142387}</t>
+    <t>{909.0: 0.18034251035223528}</t>
   </si>
   <si>
     <t>{287.0: 1.0}</t>
   </si>
   <si>
-    <t>{288.0: 0.9978448275862069}</t>
-  </si>
-  <si>
-    <t>{289.0: 0.8378034656314187, 730.0: 0.2998825373404282}</t>
+    <t>{288.0: 0.9978511952726296}</t>
+  </si>
+  <si>
+    <t>{289.0: 0.8379762146830797, 730.0: 0.30062820449168093}</t>
   </si>
   <si>
     <t>{290.0: 1.0}</t>
   </si>
   <si>
-    <t>{291.0: 0.9315335374338992}</t>
+    <t>{291.0: 0.9313041049986037}</t>
   </si>
   <si>
     <t>{292.0: 1.0, 139.0: 0.07253950479034466}</t>
@@ -640,7 +643,7 @@
     <t>{297.0: 1.0}</t>
   </si>
   <si>
-    <t>{298.0: 0.5243254148187214}</t>
+    <t>{298.0: 0.5212564069352182}</t>
   </si>
   <si>
     <t>{299.0: 1.0}</t>
@@ -655,16 +658,16 @@
     <t>{302.0: 1.0}</t>
   </si>
   <si>
-    <t>{303.0: 0.9137777777777778}</t>
+    <t>{303.0: 0.9136242208370436}</t>
   </si>
   <si>
     <t>{304.0: 1.0}</t>
   </si>
   <si>
-    <t>{305.0: 0.7922672313682628}</t>
-  </si>
-  <si>
-    <t>{142.0: 0.31750227633901973, 909.0: 0.40590425741616165}</t>
+    <t>{305.0: 0.7921536463673023}</t>
+  </si>
+  <si>
+    <t>{142.0: 0.3175393174908343, 909.0: 0.4059227876252623}</t>
   </si>
   <si>
     <t>{307.0: 1.0}</t>
@@ -673,13 +676,13 @@
     <t>{308.0: 1.0}</t>
   </si>
   <si>
-    <t>{309.0: 1.0, 204.0: 0.01907822518424724}</t>
+    <t>{309.0: 1.0, 204.0: 0.019089153981983964}</t>
   </si>
   <si>
     <t>{310.0: 1.0, 887.0: 0.029663050782374963}</t>
   </si>
   <si>
-    <t>{311.0: 0.9767409470752089, 917.0: 0.024578971324533454}</t>
+    <t>{311.0: 0.9765860497721697, 917.0: 0.024578971324533454}</t>
   </si>
   <si>
     <t>{313.0: 1.0}</t>
@@ -688,13 +691,13 @@
     <t>{314.0: 1.0}</t>
   </si>
   <si>
-    <t>{315.0: 1.0, 217.0: 0.005366426295488848}</t>
+    <t>{315.0: 1.0, 217.0: 0.005404492484377639}</t>
   </si>
   <si>
     <t>{316.0: 1.0}</t>
   </si>
   <si>
-    <t>{317.0: 1.0, 71.0: 0.009075383344384338}</t>
+    <t>{317.0: 1.0, 71.0: 0.008760009947774185}</t>
   </si>
   <si>
     <t>{318.0: 1.0}</t>
@@ -703,31 +706,28 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{98.0: 0.6813090567317013}</t>
+    <t>{98.0: 0.6782781336570187}</t>
   </si>
   <si>
     <t>{399.0: 1.0}</t>
   </si>
   <si>
-    <t>{400.0: 1.0, 897.0: 0.017055178518737092}</t>
+    <t>{400.0: 1.0, 897.0: 0.016870001751211255}</t>
   </si>
   <si>
     <t>{401.0: 0.9842657342657343}</t>
   </si>
   <si>
-    <t>{402.0: 1.0, 476.0: 0.014933895797873095, 595.0: 0.0010184611159762026}</t>
+    <t>{402.0: 1.0, 476.0: 0.014905851383004936, 595.0: 0.0010103951027521977}</t>
   </si>
   <si>
     <t>{403.0: 1.0}</t>
   </si>
   <si>
-    <t>{404.0: 0.6426770388023771}</t>
-  </si>
-  <si>
-    <t>{405.0: 1.0, 404.0: 0.29057903447578165}</t>
+    <t>{404.0: 0.6400029789369529}</t>
+  </si>
+  <si>
+    <t>{405.0: 1.0, 404.0: 0.2931571308110857}</t>
   </si>
   <si>
     <t>{406.0: 1.0}</t>
@@ -739,10 +739,10 @@
     <t>{408.0: 1.0}</t>
   </si>
   <si>
-    <t>{409.0: 0.8790940270012993}</t>
-  </si>
-  <si>
-    <t>{410.0: 0.6920026961014009}</t>
+    <t>{409.0: 0.8789792612630773}</t>
+  </si>
+  <si>
+    <t>{410.0: 0.6922120774161032}</t>
   </si>
   <si>
     <t>{268.0: 0.10478024467603081}</t>
@@ -754,7 +754,7 @@
     <t>{414.0: 1.0}</t>
   </si>
   <si>
-    <t>{415.0: 1.0, 277.0: 0.025258868390645006, 180.0: 0.0005055924978036709}</t>
+    <t>{415.0: 1.0, 277.0: 0.025275135519761547, 180.0: 0.0008296097880419807}</t>
   </si>
   <si>
     <t>{416.0: 1.0}</t>
@@ -763,22 +763,22 @@
     <t>{417.0: 1.0}</t>
   </si>
   <si>
-    <t>{418.0: 0.8796827421550545}</t>
-  </si>
-  <si>
-    <t>{419.0: 1.0, 17.0: 0.01098901098901099}</t>
-  </si>
-  <si>
-    <t>{420.0: 0.865523866886647}</t>
+    <t>{418.0: 0.879367457019463}</t>
+  </si>
+  <si>
+    <t>{419.0: 1.0, 17.0: 0.010924369747899159}</t>
+  </si>
+  <si>
+    <t>{420.0: 0.8641091794830309}</t>
   </si>
   <si>
     <t>{421.0: 1.0}</t>
   </si>
   <si>
-    <t>{423.0: 0.9963219385547382}</t>
-  </si>
-  <si>
-    <t>{424.0: 1.0, 585.0: 0.012401653553807174, 434.0: 0.0002397507716904726}</t>
+    <t>{423.0: 0.9963346269943941}</t>
+  </si>
+  <si>
+    <t>{424.0: 1.0, 585.0: 0.012528627239660514, 434.0: 0.00021743081720157614}</t>
   </si>
   <si>
     <t>{425.0: 1.0}</t>
@@ -793,19 +793,19 @@
     <t>{429.0: 1.0}</t>
   </si>
   <si>
-    <t>{431.0: 0.20950311897449783}</t>
-  </si>
-  <si>
-    <t>{431.0: 0.4948058905654396}</t>
+    <t>{431.0: 0.15609425565777582}</t>
+  </si>
+  <si>
+    <t>{431.0: 0.5482147538821617}</t>
   </si>
   <si>
     <t>{432.0: 1.0}</t>
   </si>
   <si>
-    <t>{433.0: 0.991723641597697}</t>
-  </si>
-  <si>
-    <t>{434.0: 0.9806678383128296}</t>
+    <t>{433.0: 0.9916727009413469}</t>
+  </si>
+  <si>
+    <t>{434.0: 0.9826452800420721}</t>
   </si>
   <si>
     <t>{435.0: 1.0}</t>
@@ -814,7 +814,7 @@
     <t>{436.0: 1.0}</t>
   </si>
   <si>
-    <t>{162.0: 0.36078982682599525}</t>
+    <t>{162.0: 0.35664203145726736}</t>
   </si>
   <si>
     <t>{438.0: 1.0}</t>
@@ -826,19 +826,19 @@
     <t>{440.0: 1.0}</t>
   </si>
   <si>
-    <t>{441.0: 1.0, 782.0: 0.006252227047149218}</t>
+    <t>{441.0: 1.0, 782.0: 0.006393517532387943}</t>
   </si>
   <si>
     <t>{442.0: 1.0}</t>
   </si>
   <si>
-    <t>{443.0: 0.9623430962343096, 291.0: 0.06588822757407185}</t>
+    <t>{443.0: 0.9625164401578256, 291.0: 0.0661209283101997}</t>
   </si>
   <si>
     <t>{475.0: 1.0}</t>
   </si>
   <si>
-    <t>{476.0: 0.826947033667272, 595.0: 0.056396094506158886}</t>
+    <t>{476.0: 0.8253941069561146, 595.0: 0.05594944844679226}</t>
   </si>
   <si>
     <t>{477.0: 1.0}</t>
@@ -853,7 +853,7 @@
     <t>{480.0: 0.6303059046715674}</t>
   </si>
   <si>
-    <t>{481.0: 0.9938574938574939}</t>
+    <t>{481.0: 0.9938423645320197}</t>
   </si>
   <si>
     <t>{431.0: 0.1544172726317702}</t>
@@ -868,7 +868,7 @@
     <t>{485.0: 1.0}</t>
   </si>
   <si>
-    <t>{486.0: 0.5247579841756855, 837.0: 0.0070212990658312146}</t>
+    <t>{486.0: 0.5225689544852539, 837.0: 0.007175279452255245}</t>
   </si>
   <si>
     <t>{487.0: 1.0}</t>
@@ -877,49 +877,49 @@
     <t>{731.0: 0.40671487603305784}</t>
   </si>
   <si>
-    <t>{489.0: 1.0, 935.0: 0.005207010414020828}</t>
-  </si>
-  <si>
-    <t>{490.0: 0.9503030195239726}</t>
-  </si>
-  <si>
-    <t>{491.0: 1.0, 492.0: 0.2332358287409201}</t>
-  </si>
-  <si>
-    <t>{492.0: 0.7605750434193205}</t>
-  </si>
-  <si>
-    <t>{493.0: 0.9920582395764395, 108.0: 0.008713043878725625, 144.0: 7.156676093227567e-05}</t>
+    <t>{489.0: 1.0, 935.0: 0.005155287312963662}</t>
+  </si>
+  <si>
+    <t>{490.0: 0.9501259727898774}</t>
+  </si>
+  <si>
+    <t>{491.0: 1.0, 492.0: 0.233340311686442}</t>
+  </si>
+  <si>
+    <t>{492.0: 0.7605070205814697}</t>
+  </si>
+  <si>
+    <t>{493.0: 0.9920826918847592, 108.0: 0.008708355836935765, 144.0: 7.152665026293531e-05}</t>
   </si>
   <si>
     <t>{494.0: 0.9441460794844253}</t>
   </si>
   <si>
-    <t>{495.0: 0.9301775147928995}</t>
+    <t>{495.0: 0.9292226487523992}</t>
   </si>
   <si>
     <t>{496.0: 1.0}</t>
   </si>
   <si>
-    <t>{497.0: 0.7430485921510396, 321.0: 1.0}</t>
+    <t>{497.0: 0.7419683051052892, 321.0: 1.0}</t>
   </si>
   <si>
     <t>{498.0: 1.0}</t>
   </si>
   <si>
-    <t>{499.0: 0.9598576230966976}</t>
-  </si>
-  <si>
-    <t>{277.0: 0.19667349404315676, 180.0: 0.003936702213543456}</t>
+    <t>{499.0: 0.9608410493827161}</t>
+  </si>
+  <si>
+    <t>{277.0: 0.196161521917118, 180.0: 0.0064386407935346215}</t>
   </si>
   <si>
     <t>{501.0: 1.0}</t>
   </si>
   <si>
-    <t>{534.0: 0.18577847454708085}</t>
-  </si>
-  <si>
-    <t>{503.0: 0.9985324947589098}</t>
+    <t>{534.0: 0.1748179263069942}</t>
+  </si>
+  <si>
+    <t>{503.0: 0.9985256950294861}</t>
   </si>
   <si>
     <t>{504.0: 1.0}</t>
@@ -931,7 +931,7 @@
     <t>{249.0: 0.035140616245606826, 702.0: 0.04400142825868001}</t>
   </si>
   <si>
-    <t>{507.0: 0.7996186117467582}</t>
+    <t>{507.0: 0.7984965866380302}</t>
   </si>
   <si>
     <t>{529.0: 1.0}</t>
@@ -949,13 +949,13 @@
     <t>{533.0: 1.0}</t>
   </si>
   <si>
-    <t>{534.0: 0.44192687246253753}</t>
-  </si>
-  <si>
-    <t>{535.0: 1.0, 71.0: 0.008575689783743476}</t>
-  </si>
-  <si>
-    <t>{604.0: 0.8551437537104571, 837.0: 0.03639104034620442}</t>
+    <t>{534.0: 0.4667568493776422}</t>
+  </si>
+  <si>
+    <t>{535.0: 1.0, 71.0: 0.008579955235016165}</t>
+  </si>
+  <si>
+    <t>{604.0: 0.8534475447375116, 837.0: 0.03727082234591006}</t>
   </si>
   <si>
     <t>{537.0: 1.0}</t>
@@ -964,7 +964,7 @@
     <t>{538.0: 1.0}</t>
   </si>
   <si>
-    <t>{173.0: 0.1514532243415077, 185.0: 0.07564743298500681, 404.0: 0.04851045232719062, 930.0: 0.0698397178475399}</t>
+    <t>{173.0: 0.1514532243415077, 185.0: 0.07564743298500681, 404.0: 0.04851045232719062, 930.0: 0.07985944737262418}</t>
   </si>
   <si>
     <t>{540.0: 1.0}</t>
@@ -973,7 +973,7 @@
     <t>{542.0: 0.7394957983193278}</t>
   </si>
   <si>
-    <t>{543.0: 0.6067210535157433}</t>
+    <t>{543.0: 0.6068619892475952}</t>
   </si>
   <si>
     <t>{544.0: 1.0}</t>
@@ -991,7 +991,7 @@
     <t>{561.0: 1.0}</t>
   </si>
   <si>
-    <t>{562.0: 0.6410523032130602, 211.0: 0.029372136890326056}</t>
+    <t>{562.0: 0.6410523032130602, 211.0: 0.02952729242855208}</t>
   </si>
   <si>
     <t>{563.0: 0.9855681658960348}</t>
@@ -1027,10 +1027,10 @@
     <t>{578.0: 1.0}</t>
   </si>
   <si>
-    <t>{580.0: 0.652998204990364}</t>
-  </si>
-  <si>
-    <t>{581.0: 0.7153787299158378, 144.0: 0.024900137596324715, 303.0: 0.08622222222222223}</t>
+    <t>{580.0: 0.6519937929040612}</t>
+  </si>
+  <si>
+    <t>{581.0: 0.7155652648825779, 144.0: 0.024922120708030387, 303.0: 0.08637577916295637}</t>
   </si>
   <si>
     <t>{582.0: 1.0}</t>
@@ -1042,7 +1042,7 @@
     <t>{584.0: 1.0}</t>
   </si>
   <si>
-    <t>{585.0: 0.9875983464461928, 434.0: 0.01909241091548}</t>
+    <t>{585.0: 0.9874713727603395, 434.0: 0.01713728914072638}</t>
   </si>
   <si>
     <t>{586.0: 1.0}</t>
@@ -1051,7 +1051,7 @@
     <t>{587.0: 1.0}</t>
   </si>
   <si>
-    <t>{81.0: 0.21493016932394018, 172.0: 0.05718523401450231, 507.0: 0.2003813882532418}</t>
+    <t>{81.0: 0.21691405762754148, 172.0: 0.057871914609739825, 507.0: 0.20150341336196978}</t>
   </si>
   <si>
     <t>{589.0: 1.0}</t>
@@ -1066,22 +1066,22 @@
     <t>{592.0: 1.0}</t>
   </si>
   <si>
-    <t>{593.0: 0.702206136868215, 686.0: 0.00515177483979713}</t>
-  </si>
-  <si>
-    <t>{595.0: 0.6549268314805103}</t>
-  </si>
-  <si>
-    <t>{276.0: 0.3344527137411508}</t>
-  </si>
-  <si>
-    <t>{597.0: 0.9973904244554508}</t>
-  </si>
-  <si>
-    <t>{598.0: 1.0, 599.0: 0.007402846990770414}</t>
-  </si>
-  <si>
-    <t>{599.0: 0.9900333791340854}</t>
+    <t>{593.0: 0.702523634351758, 686.0: 0.005100072579781049}</t>
+  </si>
+  <si>
+    <t>{595.0: 0.6553396520161082}</t>
+  </si>
+  <si>
+    <t>{276.0: 0.33493910198145793}</t>
+  </si>
+  <si>
+    <t>{597.0: 0.9973572083490643}</t>
+  </si>
+  <si>
+    <t>{598.0: 1.0, 599.0: 0.007619574305512909}</t>
+  </si>
+  <si>
+    <t>{599.0: 0.9897425992634663}</t>
   </si>
   <si>
     <t>{600.0: 1.0}</t>
@@ -1096,13 +1096,13 @@
     <t>{603.0: 0.518114955053119, 617.0: 0.09849118574152624}</t>
   </si>
   <si>
-    <t>{604.0: 0.14485624628954288, 837.0: 0.006164424963931088, 922.0: 0.018158236057068743}</t>
+    <t>{604.0: 0.14655245526248833, 837.0: 0.006400077612415044, 922.0: 0.018158236057068743}</t>
   </si>
   <si>
     <t>{605.0: 1.0}</t>
   </si>
   <si>
-    <t>{606.0: 0.9985494106980961}</t>
+    <t>{606.0: 0.9985660512636674}</t>
   </si>
   <si>
     <t>{607.0: 1.0}</t>
@@ -1120,16 +1120,16 @@
     <t>{611.0: 1.0}</t>
   </si>
   <si>
-    <t>{612.0: 1.0, 613.0: 0.014371407148212946}</t>
-  </si>
-  <si>
-    <t>{613.0: 0.985628592851787}</t>
-  </si>
-  <si>
-    <t>{305.0: 0.20773276863173715, 615.0: 0.0059104663291704935, 698.0: 0.0025583125699411907, 832.0: 0.1194793119479312}</t>
-  </si>
-  <si>
-    <t>{615.0: 0.8418999243921436}</t>
+    <t>{612.0: 1.0, 613.0: 0.013974117504101099}</t>
+  </si>
+  <si>
+    <t>{613.0: 0.986025882495899}</t>
+  </si>
+  <si>
+    <t>{305.0: 0.20784635363269768, 615.0: 0.005625267681682604, 698.0: 0.0025780586288422277, 832.0: 0.12134088762983947}</t>
+  </si>
+  <si>
+    <t>{615.0: 0.8423040582090643}</t>
   </si>
   <si>
     <t>{616.0: 1.0}</t>
@@ -1138,10 +1138,10 @@
     <t>{617.0: 0.8099047619047619}</t>
   </si>
   <si>
-    <t>{246.0: 0.2834118967740765, 789.0: 0.004033396617945142}</t>
-  </si>
-  <si>
-    <t>{619.0: 1.0, 887.0: 0.00853814569167461, 861.0: 0.015839714675338297, 253.0: 2.6052162294964303e-05}</t>
+    <t>{246.0: 0.28320684486708353, 789.0: 0.004033038154791923}</t>
+  </si>
+  <si>
+    <t>{619.0: 1.0, 887.0: 0.008402432138969577, 861.0: 0.015856347789562113, 253.0: 2.607951939072716e-05}</t>
   </si>
   <si>
     <t>{620.0: 1.0, 785.0: 0.005487623060981204}</t>
@@ -1153,7 +1153,7 @@
     <t>{622.0: 1.0}</t>
   </si>
   <si>
-    <t>{623.0: 0.9992374561537288}</t>
+    <t>{623.0: 0.9992354740061162}</t>
   </si>
   <si>
     <t>{624.0: 1.0}</t>
@@ -1180,13 +1180,13 @@
     <t>{629.0: 0.6539283171136957}</t>
   </si>
   <si>
-    <t>{251.0: 0.5533106669620003}</t>
+    <t>{251.0: 0.535961341134746}</t>
   </si>
   <si>
     <t>{226.0: 0.06961119065976429, 729.0: 0.053167325649869604}</t>
   </si>
   <si>
-    <t>{634.0: 0.8069981583793738}</t>
+    <t>{634.0: 0.8128571428571428}</t>
   </si>
   <si>
     <t>{635.0: 1.0}</t>
@@ -1204,13 +1204,13 @@
     <t>{680.0: 1.0}</t>
   </si>
   <si>
-    <t>{681.0: 0.8661946752127402}</t>
+    <t>{681.0: 0.8661825512520718}</t>
   </si>
   <si>
     <t>{682.0: 1.0}</t>
   </si>
   <si>
-    <t>{615.0: 0.14134058606773117, 698.0: 0.02529103651019675, 751.0: 0.18454837230628152}</t>
+    <t>{615.0: 0.14136539136539136, 698.0: 0.025307789715560587, 751.0: 0.18454837230628152}</t>
   </si>
   <si>
     <t>{684.0: 1.0}</t>
@@ -1219,10 +1219,10 @@
     <t>{685.0: 1.0}</t>
   </si>
   <si>
-    <t>{686.0: 0.5188192558492247}</t>
-  </si>
-  <si>
-    <t>{687.0: 1.0, 534.0: 0.04730317529360591}</t>
+    <t>{686.0: 0.5191522157073675}</t>
+  </si>
+  <si>
+    <t>{687.0: 1.0, 534.0: 0.04461080914777971}</t>
   </si>
   <si>
     <t>{688.0: 1.0}</t>
@@ -1243,19 +1243,19 @@
     <t>{693.0: 1.0}</t>
   </si>
   <si>
-    <t>{86.0: 0.434887333236689, 165.0: 0.03846626520830773, 433.0: 0.008276358402302987}</t>
-  </si>
-  <si>
-    <t>{298.0: 0.10551084435554689, 857.0: 0.09832713310967643}</t>
-  </si>
-  <si>
-    <t>{696.0: 0.9970840758140288, 492.0: 0.006171080812201368}</t>
+    <t>{86.0: 0.4367505323639863, 165.0: 0.03858956972013315, 433.0: 0.00832729905865315}</t>
+  </si>
+  <si>
+    <t>{298.0: 0.10678805148986302, 857.0: 0.09839006533644457}</t>
+  </si>
+  <si>
+    <t>{696.0: 0.9970049916805325, 492.0: 0.006134240441043854}</t>
   </si>
   <si>
     <t>{697.0: 1.0}</t>
   </si>
   <si>
-    <t>{698.0: 0.972150650919862}</t>
+    <t>{698.0: 0.9721141516555971}</t>
   </si>
   <si>
     <t>{700.0: 1.0}</t>
@@ -1264,13 +1264,13 @@
     <t>{701.0: 1.0}</t>
   </si>
   <si>
-    <t>{702.0: 0.6194530577607256}</t>
+    <t>{702.0: 0.6193495815589578}</t>
   </si>
   <si>
     <t>{703.0: 1.0}</t>
   </si>
   <si>
-    <t>{704.0: 1.0, 481.0: 0.006142506142506142}</t>
+    <t>{704.0: 1.0, 481.0: 0.006157635467980296}</t>
   </si>
   <si>
     <t>{705.0: 1.0}</t>
@@ -1279,28 +1279,28 @@
     <t>{706.0: 1.0}</t>
   </si>
   <si>
-    <t>{707.0: 0.9947004269100544}</t>
-  </si>
-  <si>
-    <t>{580.0: 0.21364068587520363}</t>
+    <t>{707.0: 0.9945071711931645}</t>
+  </si>
+  <si>
+    <t>{580.0: 0.21430295186114953}</t>
   </si>
   <si>
     <t>{729.0: 0.8205940003572835}</t>
   </si>
   <si>
-    <t>{730.0: 0.7001174626595719, 289.0: 0.16219653436858122}</t>
-  </si>
-  <si>
-    <t>{731.0: 0.5093056179396515}</t>
+    <t>{730.0: 0.6993717955083192, 289.0: 0.16202378531692033}</t>
+  </si>
+  <si>
+    <t>{731.0: 0.5242772338343619}</t>
   </si>
   <si>
     <t>{732.0: 1.0}</t>
   </si>
   <si>
-    <t>{733.0: 0.9184447605500237, 147.0: 0.07637003991329491}</t>
-  </si>
-  <si>
-    <t>{888.0: 0.29224517229790864, 73.0: 0.00143000143000143}</t>
+    <t>{733.0: 0.923876963930073, 147.0: 0.08227627701021362}</t>
+  </si>
+  <si>
+    <t>{888.0: 0.2922406305175582, 73.0: 0.0014347202295552368}</t>
   </si>
   <si>
     <t>{735.0: 0.6435926773455377}</t>
@@ -1309,25 +1309,25 @@
     <t>{736.0: 1.0}</t>
   </si>
   <si>
-    <t>{737.0: 1.0, 223.0: 0.019194756554307114, 428.0: 0.0037142610348103997}</t>
-  </si>
-  <si>
-    <t>{738.0: 0.9961277831558567}</t>
+    <t>{737.0: 1.0, 223.0: 0.01906090190609019, 428.0: 0.0037142610348103997}</t>
+  </si>
+  <si>
+    <t>{738.0: 0.9961240310077519}</t>
   </si>
   <si>
     <t>{739.0: 1.0}</t>
   </si>
   <si>
-    <t>{740.0: 1.0, 789.0: 0.1669884875968601, 246.0: 0.009385809539203704}</t>
-  </si>
-  <si>
-    <t>{741.0: 0.9931837546151662, 90.0: 0.033413245796262994, 789.0: 0.001339605819551074, 246.0: 0.0046834341753414985}</t>
+    <t>{740.0: 1.0, 789.0: 0.1669737704553179, 246.0: 0.00937818612090443}</t>
+  </si>
+  <si>
+    <t>{741.0: 0.9931837546151662, 90.0: 0.033413245796262994, 789.0: 0.0013426240374213674, 246.0: 0.004680023247519948}</t>
   </si>
   <si>
     <t>{743.0: 1.0}</t>
   </si>
   <si>
-    <t>{757.0: 0.24067164179104478}</t>
+    <t>{757.0: 0.2434881087202718}</t>
   </si>
   <si>
     <t>{746.0: 1.0, 691.0: 0.014129443938012761}</t>
@@ -1339,7 +1339,7 @@
     <t>{748.0: 1.0}</t>
   </si>
   <si>
-    <t>{298.0: 0.14699280494761358, 476.0: 0.15811907053485494, 595.0: 0.01078339685864043, 534.0: 0.051506884489296745}</t>
+    <t>{298.0: 0.14877215057145854, 476.0: 0.15970004166088042, 595.0: 0.01082528839563314, 534.0: 0.054145179905543954}</t>
   </si>
   <si>
     <t>{750.0: 1.0}</t>
@@ -1348,7 +1348,7 @@
     <t>{751.0: 0.8154516276937185}</t>
   </si>
   <si>
-    <t>{580.0: 0.13336110913443233}</t>
+    <t>{580.0: 0.1337032552347893}</t>
   </si>
   <si>
     <t>{753.0: 1.0}</t>
@@ -1363,7 +1363,7 @@
     <t>{756.0: 1.0}</t>
   </si>
   <si>
-    <t>{757.0: 0.27504874360130027}</t>
+    <t>{757.0: 0.19016497813652725}</t>
   </si>
   <si>
     <t>{758.0: 0.7042549992482333}</t>
@@ -1372,19 +1372,19 @@
     <t>{759.0: 1.0}</t>
   </si>
   <si>
-    <t>{760.0: 1.0, 761.0: 0.05816302294063936}</t>
-  </si>
-  <si>
-    <t>{761.0: 0.9418369770593606}</t>
-  </si>
-  <si>
-    <t>{141.0: 0.059558272455346666, 762.0: 0.0615630433760985}</t>
+    <t>{760.0: 1.0, 761.0: 0.05807537591257333}</t>
+  </si>
+  <si>
+    <t>{761.0: 0.9419246240874267}</t>
+  </si>
+  <si>
+    <t>{141.0: 0.059563655890458374, 762.0: 0.0615630433760985}</t>
   </si>
   <si>
     <t>{763.0: 1.0}</t>
   </si>
   <si>
-    <t>{764.0: 0.8271316181160961}</t>
+    <t>{764.0: 0.8273298785149945}</t>
   </si>
   <si>
     <t>{765.0: 1.0}</t>
@@ -1393,7 +1393,7 @@
     <t>{766.0: 1.0}</t>
   </si>
   <si>
-    <t>{767.0: 0.9924251679902261}</t>
+    <t>{767.0: 0.9930648769574945}</t>
   </si>
   <si>
     <t>{768.0: 1.0}</t>
@@ -1408,10 +1408,10 @@
     <t>{771.0: 1.0}</t>
   </si>
   <si>
-    <t>{772.0: 1.0, 493.0: 0.007941760423560556, 108.0: 6.975085159753668e-05, 144.0: 5.729160314791915e-07}</t>
-  </si>
-  <si>
-    <t>{773.0: 1.0, 757.0: 0.36605151781953466}</t>
+    <t>{772.0: 1.0, 493.0: 0.007917308115240818, 108.0: 6.949696522493627e-05, 144.0: 5.708178695335117e-07}</t>
+  </si>
+  <si>
+    <t>{773.0: 1.0, 757.0: 0.42066087642038213}</t>
   </si>
   <si>
     <t>{775.0: 1.0}</t>
@@ -1423,7 +1423,7 @@
     <t>{777.0: 1.0}</t>
   </si>
   <si>
-    <t>{778.0: 0.9994031988541417, 171.0: 0.01740033043861241, 184.0: 0.0020208824520040417, 593.0: 0.0009677776021886674}</t>
+    <t>{778.0: 0.9994188749418875, 171.0: 0.017201854323422337, 184.0: 0.0020373514431239388, 593.0: 0.0009684790495434398}</t>
   </si>
   <si>
     <t>{779.0: 1.0}</t>
@@ -1435,7 +1435,7 @@
     <t>{781.0: 1.0}</t>
   </si>
   <si>
-    <t>{782.0: 0.7409374650734597, 168.0: 0.001507017048130357, 930.0: 0.00012236563107632153}</t>
+    <t>{782.0: 0.7360736129578894, 168.0: 0.0015194681861348527, 930.0: 0.00012124918504206914}</t>
   </si>
   <si>
     <t>{783.0: 1.0}</t>
@@ -1450,37 +1450,37 @@
     <t>{204.0: 0.2695116861435726}</t>
   </si>
   <si>
-    <t>{277.0: 0.0678019663035204, 180.0: 0.0013571536526986046}</t>
+    <t>{277.0: 0.06831393842955914, 180.0: 0.002242279252530558}</t>
   </si>
   <si>
     <t>{788.0: 1.0}</t>
   </si>
   <si>
-    <t>{789.0: 0.824552806641099, 246.0: 0.04634508467932692}</t>
+    <t>{789.0: 0.824558604706184, 246.0: 0.0463118491092418}</t>
   </si>
   <si>
     <t>{831.0: 1.0}</t>
   </si>
   <si>
-    <t>{832.0: 0.8805206880520688}</t>
+    <t>{832.0: 0.8786591123701605}</t>
   </si>
   <si>
     <t>{833.0: 1.0}</t>
   </si>
   <si>
-    <t>{834.0: 0.5258853831294269}</t>
-  </si>
-  <si>
-    <t>{835.0: 0.9951622083096187, 836.0: 0.014775977121067683}</t>
-  </si>
-  <si>
-    <t>{836.0: 0.9852240228789323, 835.0: 0.004837791690381332}</t>
-  </si>
-  <si>
-    <t>{837.0: 0.9483223333356342, 486.0: 0.3182247403210576}</t>
-  </si>
-  <si>
-    <t>{838.0: 1.0, 19.0: 0.13507462686567165, 423.0: 0.0036780614452617912}</t>
+    <t>{834.0: 0.5258548522119905}</t>
+  </si>
+  <si>
+    <t>{835.0: 0.9949748743718593, 836.0: 0.014039855072463768}</t>
+  </si>
+  <si>
+    <t>{836.0: 0.9859601449275363, 835.0: 0.005025125628140704}</t>
+  </si>
+  <si>
+    <t>{837.0: 0.9469677938066939, 486.0: 0.3182247403210576}</t>
+  </si>
+  <si>
+    <t>{838.0: 1.0, 19.0: 0.13507462686567165, 423.0: 0.0036653730056058647}</t>
   </si>
   <si>
     <t>{839.0: 1.0}</t>
@@ -1495,10 +1495,10 @@
     <t>{842.0: 1.0}</t>
   </si>
   <si>
-    <t>{264.0: 0.3164425011126853}</t>
-  </si>
-  <si>
-    <t>{227.0: 0.34034653465346537, 686.0: 0.016503024588630608}</t>
+    <t>{264.0: 0.3175020990619109}</t>
+  </si>
+  <si>
+    <t>{227.0: 0.3808864265927978, 686.0: 0.016444551075506544}</t>
   </si>
   <si>
     <t>{845.0: 1.0}</t>
@@ -1510,22 +1510,22 @@
     <t>{847.0: 1.0}</t>
   </si>
   <si>
-    <t>{848.0: 1.0, 707.0: 0.005299573089945532}</t>
+    <t>{848.0: 1.0, 707.0: 0.00549282880683552}</t>
   </si>
   <si>
     <t>{849.0: 1.0}</t>
   </si>
   <si>
-    <t>{180.0: 0.025079647574191614, 277.0: 0.06405179667375985}</t>
-  </si>
-  <si>
-    <t>{851.0: 1.0, 7.0: 0.014550392860607237}</t>
+    <t>{180.0: 0.006030188868412748, 277.0: 0.0641831147882809}</t>
+  </si>
+  <si>
+    <t>{851.0: 1.0, 7.0: 0.014697236919459141}</t>
   </si>
   <si>
     <t>{852.0: 1.0}</t>
   </si>
   <si>
-    <t>{853.0: 1.0, 91.0: 0.00033310405391959646, 92.0: 1.6074545008734487e-07}</t>
+    <t>{853.0: 1.0, 91.0: 0.00032893191109440345, 92.0: 1.4919327550235536e-07}</t>
   </si>
   <si>
     <t>{854.0: 1.0, 976.0: 0.058602554470323066}</t>
@@ -1534,13 +1534,13 @@
     <t>{855.0: 1.0}</t>
   </si>
   <si>
-    <t>{146.0: 0.30546964024092466}</t>
-  </si>
-  <si>
-    <t>{857.0: 0.8968095693955744}</t>
-  </si>
-  <si>
-    <t>{858.0: 1.0, 543.0: 0.011648711492656144}</t>
+    <t>{146.0: 0.2650049428046886}</t>
+  </si>
+  <si>
+    <t>{857.0: 0.8967484332224991}</t>
+  </si>
+  <si>
+    <t>{858.0: 1.0, 543.0: 0.011652059107576513}</t>
   </si>
   <si>
     <t>{859.0: 1.0}</t>
@@ -1549,13 +1549,13 @@
     <t>{860.0: 1.0}</t>
   </si>
   <si>
-    <t>{861.0: 0.9841602853246617, 253.0: 0.0016186846798102988, 490.0: 0.04730928444707274}</t>
+    <t>{861.0: 0.9841436522104379, 253.0: 0.0016186573227145358, 490.0: 0.04747774480712166}</t>
   </si>
   <si>
     <t>{780.0: 0.16666666666666666}</t>
   </si>
   <si>
-    <t>{863.0: 1.0, 10.0: 0.010316428261811877}</t>
+    <t>{863.0: 1.0, 10.0: 0.010404826440500132}</t>
   </si>
   <si>
     <t>{885.0: 1.0}</t>
@@ -1564,10 +1564,10 @@
     <t>{886.0: 1.0}</t>
   </si>
   <si>
-    <t>{887.0: 0.7855343805393834, 834.0: 0.0003853383375844337}</t>
-  </si>
-  <si>
-    <t>{888.0: 0.7077548277020914}</t>
+    <t>{887.0: 0.784559191681481, 834.0: 0.0004049256727081552}</t>
+  </si>
+  <si>
+    <t>{888.0: 0.7077593694824418}</t>
   </si>
   <si>
     <t>{889.0: 1.0}</t>
@@ -1591,22 +1591,22 @@
     <t>{895.0: 1.0}</t>
   </si>
   <si>
-    <t>{896.0: 1.0, 897.0: 0.02499643873816452}</t>
-  </si>
-  <si>
-    <t>{897.0: 0.7138830138447109}</t>
-  </si>
-  <si>
-    <t>{905.0: 1.0, 499.0: 0.04014237690330235}</t>
+    <t>{896.0: 1.0, 897.0: 0.024944406380148505}</t>
+  </si>
+  <si>
+    <t>{897.0: 0.7146079196533135}</t>
+  </si>
+  <si>
+    <t>{905.0: 1.0, 499.0: 0.03915895061728395}</t>
   </si>
   <si>
     <t>{906.0: 1.0}</t>
   </si>
   <si>
-    <t>{782.0: 0.044733262807919, 930.0: 0.09603434816167061, 404.0: 0.009275575382602387}</t>
-  </si>
-  <si>
-    <t>{909.0: 0.41649529506959976}</t>
+    <t>{782.0: 0.044733262807919, 930.0: 0.09529245920638413, 404.0: 0.009293093466910127}</t>
+  </si>
+  <si>
+    <t>{909.0: 0.4137347020225024}</t>
   </si>
   <si>
     <t>{910.0: 0.8165218347816522}</t>
@@ -1621,28 +1621,28 @@
     <t>{914.0: 0.9747840298855942}</t>
   </si>
   <si>
-    <t>{915.0: 1.0, 171.0: 0.23926214182338407, 420.0: 0.13447613311335305}</t>
-  </si>
-  <si>
-    <t>{534.0: 0.22372587767191515}</t>
-  </si>
-  <si>
-    <t>{917.0: 0.7979505825057535}</t>
+    <t>{915.0: 1.0, 171.0: 0.2366124934523391, 420.0: 0.135890820516969}</t>
+  </si>
+  <si>
+    <t>{534.0: 0.21235609808836542}</t>
+  </si>
+  <si>
+    <t>{917.0: 0.7976370566050043}</t>
   </si>
   <si>
     <t>{918.0: 1.0}</t>
   </si>
   <si>
-    <t>{298.0: 0.2231709358781182}</t>
+    <t>{298.0: 0.2231833910034602}</t>
   </si>
   <si>
     <t>{920.0: 1.0}</t>
   </si>
   <si>
-    <t>{921.0: 1.0, 686.0: 0.06491606204672862}</t>
-  </si>
-  <si>
-    <t>{922.0: 0.9169191409470998}</t>
+    <t>{921.0: 1.0, 686.0: 0.06468367522224322}</t>
+  </si>
+  <si>
+    <t>{922.0: 0.9181241221421323}</t>
   </si>
   <si>
     <t>{923.0: 1.0}</t>
@@ -1651,7 +1651,7 @@
     <t>{924.0: 1.0}</t>
   </si>
   <si>
-    <t>{141.0: 0.22966962560285759, 762.0: 0.2374004574051698}</t>
+    <t>{141.0: 0.22969038529711314, 762.0: 0.2374004574051698}</t>
   </si>
   <si>
     <t>{926.0: 1.0}</t>
@@ -1660,13 +1660,13 @@
     <t>{927.0: 1.0}</t>
   </si>
   <si>
-    <t>{3.0: 0.2986245474636466, 418.0: 0.12031725784494546, 922.0: 0.0649226229958314}</t>
-  </si>
-  <si>
-    <t>{929.0: 1.0, 930.0: 0.5022703425118055}</t>
-  </si>
-  <si>
-    <t>{930.0: 0.33173322584790765}</t>
+    <t>{3.0: 0.3050371432060981, 418.0: 0.12063254298053716, 922.0: 0.06371764180079881}</t>
+  </si>
+  <si>
+    <t>{929.0: 1.0, 930.0: 0.5060493433210941}</t>
+  </si>
+  <si>
+    <t>{930.0: 0.3186775009148554}</t>
   </si>
   <si>
     <t>{931.0: 0.9138912855910267}</t>
@@ -1675,28 +1675,28 @@
     <t>{932.0: 1.0}</t>
   </si>
   <si>
-    <t>{249.0: 0.22776493582665594, 702.0: 0.19452922961350527}</t>
-  </si>
-  <si>
-    <t>{934.0: 1.0, 5.0: 0.01186744290192566}</t>
-  </si>
-  <si>
-    <t>{935.0: 0.9947929895859792}</t>
+    <t>{249.0: 0.22840504133250067, 702.0: 0.19453117352956792}</t>
+  </si>
+  <si>
+    <t>{934.0: 1.0, 5.0: 0.01182244033013607}</t>
+  </si>
+  <si>
+    <t>{935.0: 0.9948447126870363}</t>
   </si>
   <si>
     <t>{936.0: 1.0}</t>
   </si>
   <si>
-    <t>{593.0: 0.24877521526153046, 171.0: 0.0009896642317907222}</t>
-  </si>
-  <si>
-    <t>{910.0: 0.13926168166609582, 497.0: 0.024895113952272806, 731.0: 0.06374124801679136}</t>
+    <t>{593.0: 0.24857342310263736, 171.0: 0.000986460766072281}</t>
+  </si>
+  <si>
+    <t>{910.0: 0.13778294444063413, 497.0: 0.02472433810645906, 731.0: 0.05182148121433188}</t>
   </si>
   <si>
     <t>{13.0: 0.27403661993411477}</t>
   </si>
   <si>
-    <t>{785.0: 0.13213207501312954, 206.0: 0.1472611464968153}</t>
+    <t>{785.0: 0.1284154307396763, 206.0: 0.1472611464968153}</t>
   </si>
   <si>
     <t>{941.0: 1.0}</t>
@@ -1705,16 +1705,16 @@
     <t>{942.0: 1.0}</t>
   </si>
   <si>
-    <t>{943.0: 1.0, 634.0: 0.19300184162062614}</t>
+    <t>{943.0: 1.0, 634.0: 0.18714285714285714}</t>
   </si>
   <si>
     <t>{944.0: 1.0}</t>
   </si>
   <si>
-    <t>{971.0: 1.0, 975.0: 0.002119815668202765}</t>
-  </si>
-  <si>
-    <t>{139.0: 0.32523553473386324, 615.0: 0.01084902321095488}</t>
+    <t>{971.0: 1.0, 975.0: 0.002163077212451801}</t>
+  </si>
+  <si>
+    <t>{139.0: 0.32523553473386324, 615.0: 0.010705282743861748}</t>
   </si>
   <si>
     <t>{973.0: 0.9165003326679974, 494.0: 0.051190136733336056}</t>
@@ -1723,7 +1723,7 @@
     <t>{545.0: 0.2950640850831743}</t>
   </si>
   <si>
-    <t>{975.0: 0.9970583576792547}</t>
+    <t>{975.0: 0.9970151317640227}</t>
   </si>
   <si>
     <t>{976.0: 0.941397445529677}</t>
@@ -1732,7 +1732,7 @@
     <t>{977.0: 1.0}</t>
   </si>
   <si>
-    <t>{782.0: 0.20807704507147204}</t>
+    <t>{782.0: 0.21279960670180362}</t>
   </si>
   <si>
     <t>{979.0: 1.0}</t>
@@ -1744,19 +1744,19 @@
     <t>{981.0: 1.0, 431.0: 0.14127371782829232}</t>
   </si>
   <si>
-    <t>{989.0: 1.0, 249.0: 0.005706963499308707, 495.0: 0.06982248520710059}</t>
-  </si>
-  <si>
-    <t>{990.0: 1.0, 599.0: 0.0025637738751442124}</t>
-  </si>
-  <si>
-    <t>{497.0: 0.23205629389668767, 910.0: 0.044216483552252, 731.0: 0.020238258010499322}</t>
-  </si>
-  <si>
-    <t>{410.0: 0.2821816179204645, 729.0: 0.12568021934125279}</t>
-  </si>
-  <si>
-    <t>{486.0: 0.8813719916619288, 837.0: 0.11862800833807091}</t>
+    <t>{989.0: 1.0, 249.0: 0.005742824131710109, 495.0: 0.07077735124760076}</t>
+  </si>
+  <si>
+    <t>{990.0: 1.0, 599.0: 0.002637826431020839}</t>
+  </si>
+  <si>
+    <t>{497.0: 0.2333073567882517, 910.0: 0.04569522077771368, 731.0: 0.017186408918248394}</t>
+  </si>
+  <si>
+    <t>{410.0: 0.28218383273501624, 729.0: 0.12568120579239273}</t>
+  </si>
+  <si>
+    <t>{486.0: 0.8813719916619289, 837.0: 0.11862800833807091}</t>
   </si>
   <si>
     <t>{3.0: 1.0}</t>
@@ -1774,7 +1774,7 @@
     <t>{13.0: 1.0}</t>
   </si>
   <si>
-    <t>{14.0: 0.9919299714123917, 178.0: 0.0006410880191330579, 623.0: 0.0016149870801033589, 696.0: 0.005721431161519682, 492.0: 9.252232685240912e-05}</t>
+    <t>{14.0: 0.9919351812436294, 178.0: 0.000640674146945109, 623.0: 0.0016139444803098776, 696.0: 0.005717900736820558, 492.0: 9.229939229500004e-05}</t>
   </si>
   <si>
     <t>{17.0: 1.0}</t>
@@ -1783,13 +1783,13 @@
     <t>{19.0: 0.6241540864133264, 636.0: 0.37584591358667363}</t>
   </si>
   <si>
-    <t>{34.0: 0.8740791396589427, 78.0: 0.1259208603410571}</t>
-  </si>
-  <si>
-    <t>{46.0: 0.8535479946204908, 90.0: 0.06163253957874768, 246.0: 0.05698406038140837, 681.0: 0.010181063660729604, 741.0: 0.006559998551954931, 789.0: 0.011094343206668732}</t>
-  </si>
-  <si>
-    <t>{48.0: 0.9182990922121357, 443.0: 0.07303779428966833, 291.0: 0.008663113498195959}</t>
+    <t>{34.0: 0.8740791396589428, 78.0: 0.1259208603410571}</t>
+  </si>
+  <si>
+    <t>{46.0: 0.8535479946204907, 90.0: 0.06163253957874768, 246.0: 0.056983305008493704, 681.0: 0.010181063660729605, 741.0: 0.006559998551954926, 789.0: 0.011095098579583398}</t>
+  </si>
+  <si>
+    <t>{48.0: 0.9182990922121357, 443.0: 0.07303779428966835, 291.0: 0.008663113498195959}</t>
   </si>
   <si>
     <t>{834.0: 1.0}</t>
@@ -1804,19 +1804,19 @@
     <t>{73.0: 1.0}</t>
   </si>
   <si>
-    <t>{75.0: 0.8852873563218391, 917.0: 0.11471264367816092}</t>
-  </si>
-  <si>
-    <t>{77.0: 0.9994776704100288, 85.0: 0.0005223295899712719}</t>
+    <t>{75.0: 0.8878903617164682, 917.0: 0.11210963828353179}</t>
+  </si>
+  <si>
+    <t>{77.0: 0.9994692848613507, 85.0: 0.0005307151386493299}</t>
   </si>
   <si>
     <t>{78.0: 1.0}</t>
   </si>
   <si>
-    <t>{764.0: 0.9332690453230472, 757.0: 0.06673095467695275}</t>
-  </si>
-  <si>
-    <t>{81.0: 0.9985382678699429, 172.0: 0.001461732130057138}</t>
+    <t>{764.0: 0.933269045323047, 757.0: 0.06673095467695275}</t>
+  </si>
+  <si>
+    <t>{81.0: 0.9985370734491796, 172.0: 0.001462926550820381}</t>
   </si>
   <si>
     <t>{85.0: 1.0}</t>
@@ -1840,13 +1840,13 @@
     <t>{102.0: 1.0}</t>
   </si>
   <si>
-    <t>{543.0: 0.6707457469502988, 86.0: 0.32925425304970135}</t>
-  </si>
-  <si>
-    <t>{108.0: 0.9879188511511287, 144.0: 0.012081148848871666}</t>
-  </si>
-  <si>
-    <t>{109.0: 0.9924710641645131, 110.0: 0.007528935835487131}</t>
+    <t>{543.0: 0.6707439927095041, 86.0: 0.3292560072904959}</t>
+  </si>
+  <si>
+    <t>{108.0: 0.9879188511511281, 144.0: 0.012081148848871666}</t>
+  </si>
+  <si>
+    <t>{109.0: 0.9924710641645129, 110.0: 0.007528935835487132}</t>
   </si>
   <si>
     <t>{110.0: 1.0}</t>
@@ -1858,7 +1858,7 @@
     <t>{141.0: 1.0}</t>
   </si>
   <si>
-    <t>{141.0: 0.9420988600009006, 762.0: 0.057901139999098815}</t>
+    <t>{141.0: 0.9421837681943132, 762.0: 0.057816231805686964}</t>
   </si>
   <si>
     <t>{142.0: 1.0}</t>
@@ -1870,10 +1870,10 @@
     <t>{146.0: 1.0}</t>
   </si>
   <si>
-    <t>{147.0: 0.8973738751910919, 764.0: 0.038649094051082036, 733.0: 0.06397703075782603}</t>
-  </si>
-  <si>
-    <t>{152.0: 0.9990500316656112, 975.0: 0.0009499683343888536}</t>
+    <t>{147.0: 0.8973738751910918, 764.0: 0.03864909405108203, 733.0: 0.06397703075782603}</t>
+  </si>
+  <si>
+    <t>{152.0: 0.9990500316656109, 975.0: 0.0009499683343888537}</t>
   </si>
   <si>
     <t>{162.0: 1.0}</t>
@@ -1888,13 +1888,13 @@
     <t>{171.0: 1.0}</t>
   </si>
   <si>
-    <t>{172.0: 0.9946275071633239, 81.0: 0.0053724928366762174}</t>
-  </si>
-  <si>
-    <t>{173.0: 0.9936051159072742, 404.0: 0.006394884092725819}</t>
-  </si>
-  <si>
-    <t>{174.0: 0.5192117150704537, 534.0: 0.4807882849295463}</t>
+    <t>{172.0: 0.9946275071633238, 81.0: 0.0053724928366762174}</t>
+  </si>
+  <si>
+    <t>{173.0: 0.9936119244077721, 404.0: 0.006388075592227841}</t>
+  </si>
+  <si>
+    <t>{174.0: 0.5213493935712422, 534.0: 0.47865060642875795}</t>
   </si>
   <si>
     <t>{562.0: 1.0}</t>
@@ -1906,13 +1906,13 @@
     <t>{179.0: 0.9123261843035585, 180.0: 0.08767381569644118}</t>
   </si>
   <si>
-    <t>{180.0: 0.9746846160358988, 410.0: 0.02531538396410126}</t>
+    <t>{180.0: 0.9746846160358987, 410.0: 0.025315383964101257}</t>
   </si>
   <si>
     <t>{182.0: 1.0}</t>
   </si>
   <si>
-    <t>{184.0: 0.6198636811651962, 171.0: 0.16743580614272274, 593.0: 0.21101587657348267, 778.0: 0.0016846361185983828}</t>
+    <t>{184.0: 0.619581107396017, 171.0: 0.16755953700304693, 593.0: 0.21116098603571878, 778.0: 0.0016983695652173915}</t>
   </si>
   <si>
     <t>{185.0: 1.0}</t>
@@ -1921,7 +1921,7 @@
     <t>{203.0: 1.0}</t>
   </si>
   <si>
-    <t>{204.0: 0.9946148092744952, 857.0: 0.0053851907255048626}</t>
+    <t>{204.0: 0.9946682464454976, 857.0: 0.005331753554502371}</t>
   </si>
   <si>
     <t>{206.0: 0.8527388535031846, 785.0: 0.1472611464968153}</t>
@@ -1930,7 +1930,7 @@
     <t>{211.0: 1.0}</t>
   </si>
   <si>
-    <t>{212.0: 0.4773171039073676, 681.0: 0.5226828960926323}</t>
+    <t>{212.0: 0.4773171039073675, 681.0: 0.5226828960926323}</t>
   </si>
   <si>
     <t>{897.0: 1.0}</t>
@@ -1942,16 +1942,16 @@
     <t>{217.0: 1.0}</t>
   </si>
   <si>
-    <t>{218.0: 0.7815333823680913, 409.0: 0.2184666176319087}</t>
+    <t>{218.0: 0.7813754377265826, 409.0: 0.21862456227341748}</t>
   </si>
   <si>
     <t>{480.0: 1.0}</t>
   </si>
   <si>
-    <t>{221.0: 0.9001536098310291, 999.0: 0.0998463901689708}</t>
-  </si>
-  <si>
-    <t>{222.0: 0.9910496338486574, 490.0: 0.0032546786004882017, 503.0: 0.005695687550854353}</t>
+    <t>{221.0: 0.9001536098310297, 999.0: 0.09984639016897083}</t>
+  </si>
+  <si>
+    <t>{222.0: 0.9910277324632952, 490.0: 0.0032626427406199023, 503.0: 0.005709624796084829}</t>
   </si>
   <si>
     <t>{223.0: 1.0}</t>
@@ -1963,7 +1963,7 @@
     <t>{227.0: 1.0}</t>
   </si>
   <si>
-    <t>{228.0: 0.9923809523809523, 738.0: 0.00761904761904762}</t>
+    <t>{228.0: 0.9923809523809524, 738.0: 0.007619047619047621}</t>
   </si>
   <si>
     <t>{595.0: 1.0}</t>
@@ -1990,13 +1990,13 @@
     <t>{253.0: 1.0}</t>
   </si>
   <si>
-    <t>{255.0: 0.888790429774036, 973.0: 0.10014817456462068, 494.0: 0.011061395661342984}</t>
+    <t>{255.0: 0.8887904297740362, 973.0: 0.1001735060050665, 494.0: 0.011036064220897158}</t>
   </si>
   <si>
     <t>{264.0: 1.0}</t>
   </si>
   <si>
-    <t>{834.0: 0.28869996457669145, 887.0: 0.7113000354233081}</t>
+    <t>{834.0: 0.28869996457669145, 887.0: 0.7113000354233088}</t>
   </si>
   <si>
     <t>{268.0: 1.0}</t>
@@ -2011,7 +2011,7 @@
     <t>{276.0: 1.0}</t>
   </si>
   <si>
-    <t>{277.0: 0.9637501241434107, 180.0: 0.03624987585658953}</t>
+    <t>{277.0: 0.9637501241434101, 180.0: 0.036249875856589536}</t>
   </si>
   <si>
     <t>{278.0: 0.9590864276721839, 767.0: 0.016295795701747166, 757.0: 0.02461777662606893}</t>
@@ -2029,7 +2029,7 @@
     <t>{291.0: 1.0}</t>
   </si>
   <si>
-    <t>{292.0: 0.7970762269404802, 139.0: 0.20292377305951964}</t>
+    <t>{292.0: 0.7970762269404801, 139.0: 0.20292377305951964}</t>
   </si>
   <si>
     <t>{298.0: 1.0}</t>
@@ -2047,7 +2047,7 @@
     <t>{309.0: 0.9568853898550177, 204.0: 0.043114610144982045}</t>
   </si>
   <si>
-    <t>{310.0: 0.8499271491015055, 887.0: 0.15007285089849443}</t>
+    <t>{310.0: 0.8503631961259079, 887.0: 0.149636803874092}</t>
   </si>
   <si>
     <t>{311.0: 0.9817357775823581, 917.0: 0.018264222417641886}</t>
@@ -2056,22 +2056,22 @@
     <t>{315.0: 0.9926840420667582, 217.0: 0.007315957933241884}</t>
   </si>
   <si>
-    <t>{317.0: 0.9822371579452712, 71.0: 0.017762842054728757}</t>
-  </si>
-  <si>
-    <t>{400.0: 0.9681191395477114, 897.0: 0.03188086045228902}</t>
+    <t>{317.0: 0.982051903953432, 71.0: 0.017948096046568034}</t>
+  </si>
+  <si>
+    <t>{400.0: 0.9681191395477112, 897.0: 0.03188086045228902}</t>
   </si>
   <si>
     <t>{401.0: 1.0}</t>
   </si>
   <si>
-    <t>{402.0: 0.9895904270843466, 476.0: 0.008804455271191234, 595.0: 0.001605117644462041}</t>
+    <t>{402.0: 0.9895904270843466, 476.0: 0.008805596079751619, 595.0: 0.0016039768359016567}</t>
   </si>
   <si>
     <t>{404.0: 1.0}</t>
   </si>
   <si>
-    <t>{405.0: 0.365657648004286, 404.0: 0.6343423519957139}</t>
+    <t>{405.0: 0.35768535262206147, 404.0: 0.6423146473779385}</t>
   </si>
   <si>
     <t>{409.0: 1.0}</t>
@@ -2080,13 +2080,13 @@
     <t>{410.0: 1.0}</t>
   </si>
   <si>
-    <t>{415.0: 0.8731132075471698, 277.0: 0.12228716197857427, 180.0: 0.004599630474255935}</t>
+    <t>{415.0: 0.8729333963155409, 277.0: 0.122460455075379, 180.0: 0.004606148609080106}</t>
   </si>
   <si>
     <t>{418.0: 1.0}</t>
   </si>
   <si>
-    <t>{419.0: 0.9852104664391355, 17.0: 0.014789533560864617}</t>
+    <t>{419.0: 0.9852607709750567, 17.0: 0.01473922902494331}</t>
   </si>
   <si>
     <t>{420.0: 1.0}</t>
@@ -2095,7 +2095,7 @@
     <t>{423.0: 1.0}</t>
   </si>
   <si>
-    <t>{424.0: 0.9520371325425477, 585.0: 0.0475629244060067, 434.0: 0.00039994305144559083}</t>
+    <t>{424.0: 0.9521112255406797, 585.0: 0.04748944923957106, 434.0: 0.00039932521974922795}</t>
   </si>
   <si>
     <t>{428.0: 1.0}</t>
@@ -2110,19 +2110,19 @@
     <t>{434.0: 1.0}</t>
   </si>
   <si>
-    <t>{441.0: 0.9886363636363634, 782.0: 0.011363636363636366}</t>
-  </si>
-  <si>
-    <t>{443.0: 0.8939655172413792, 291.0: 0.1060344827586207}</t>
-  </si>
-  <si>
-    <t>{476.0: 0.8458036984352777, 595.0: 0.15419630156472267}</t>
+    <t>{441.0: 0.9886363636363636, 782.0: 0.011363636363636364}</t>
+  </si>
+  <si>
+    <t>{443.0: 0.8939655172413793, 291.0: 0.10603448275862068}</t>
+  </si>
+  <si>
+    <t>{476.0: 0.8459132906894105, 595.0: 0.15408670931058996}</t>
   </si>
   <si>
     <t>{481.0: 1.0}</t>
   </si>
   <si>
-    <t>{483.0: 0.9609996213555472, 563.0: 0.03900037864445286}</t>
+    <t>{483.0: 0.9609996213555471, 563.0: 0.03900037864445286}</t>
   </si>
   <si>
     <t>{486.0: 0.881371991661929, 837.0: 0.1186280083380709}</t>
@@ -2131,7 +2131,7 @@
     <t>{731.0: 1.0}</t>
   </si>
   <si>
-    <t>{489.0: 0.9916936790923825, 935.0: 0.008306320907617504}</t>
+    <t>{489.0: 0.991730536506656, 935.0: 0.00826946349334409}</t>
   </si>
   <si>
     <t>{490.0: 1.0}</t>
@@ -2143,7 +2143,7 @@
     <t>{492.0: 1.0}</t>
   </si>
   <si>
-    <t>{493.0: 0.9826319305277216, 108.0: 0.017158243239765756, 144.0: 0.00020982623251213314}</t>
+    <t>{493.0: 0.9826319305277221, 108.0: 0.017158243239765756, 144.0: 0.00020982623251213314}</t>
   </si>
   <si>
     <t>{494.0: 1.0}</t>
@@ -2152,31 +2152,34 @@
     <t>{495.0: 1.0}</t>
   </si>
   <si>
-    <t>{497.0: 0.8601619027150942, 321.0: 0.1398380972849058}</t>
+    <t>{497.0: 0.8695187165775399, 321.0: 0.1304812834224599}</t>
   </si>
   <si>
     <t>{499.0: 1.0}</t>
   </si>
   <si>
+    <t>{277.0: 0.9637501241434098, 180.0: 0.03624987585658953}</t>
+  </si>
+  <si>
     <t>{534.0: 1.0}</t>
   </si>
   <si>
     <t>{503.0: 1.0}</t>
   </si>
   <si>
-    <t>{249.0: 0.3887955182072828, 702.0: 0.6112044817927171}</t>
+    <t>{249.0: 0.3887955182072831, 702.0: 0.6112044817927171}</t>
   </si>
   <si>
     <t>{507.0: 1.0}</t>
   </si>
   <si>
-    <t>{535.0: 0.9934522679825393, 71.0: 0.00654773201746062}</t>
-  </si>
-  <si>
-    <t>{604.0: 0.8182233178124714, 837.0: 0.1817766821875285}</t>
-  </si>
-  <si>
-    <t>{173.0: 0.16679169792448112, 185.0: 0.16654163540885222, 404.0: 0.16654163540885222, 930.0: 0.5001250312578145}</t>
+    <t>{535.0: 0.9934522679825394, 71.0: 0.006547732017460619}</t>
+  </si>
+  <si>
+    <t>{604.0: 0.8183062602664716, 837.0: 0.18169373973352793}</t>
+  </si>
+  <si>
+    <t>{173.0: 0.16679169792448112, 185.0: 0.16654163540885225, 404.0: 0.16654163540885225, 930.0: 0.5001250312578145}</t>
   </si>
   <si>
     <t>{542.0: 1.0}</t>
@@ -2188,25 +2191,25 @@
     <t>{545.0: 1.0}</t>
   </si>
   <si>
-    <t>{562.0: 0.9667784212130447, 211.0: 0.0332215787869552}</t>
+    <t>{562.0: 0.9667784212130448, 211.0: 0.0332215787869552}</t>
   </si>
   <si>
     <t>{563.0: 1.0}</t>
   </si>
   <si>
-    <t>{564.0: 0.9223519621587966, 565.0: 0.07764803784120333}</t>
+    <t>{564.0: 0.9246077855267295, 565.0: 0.07539221447327048}</t>
   </si>
   <si>
     <t>{565.0: 1.0}</t>
   </si>
   <si>
-    <t>{576.0: 0.980284775465498, 401.0: 0.019715224534501644}</t>
+    <t>{576.0: 0.9802847754654983, 401.0: 0.019715224534501644}</t>
   </si>
   <si>
     <t>{580.0: 1.0}</t>
   </si>
   <si>
-    <t>{581.0: 0.8894713337125868, 144.0: 0.04651916384581355, 303.0: 0.06400950244159957}</t>
+    <t>{581.0: 0.8894713337125869, 144.0: 0.04651916384581355, 303.0: 0.06400950244159957}</t>
   </si>
   <si>
     <t>{758.0: 1.0}</t>
@@ -2218,7 +2221,7 @@
     <t>{81.0: 0.36897941862932315, 172.0: 0.0736261404625504, 507.0: 0.5573944409081265}</t>
   </si>
   <si>
-    <t>{593.0: 0.9945545019247019, 686.0: 0.005445498075298094}</t>
+    <t>{593.0: 0.9945641986879099, 686.0: 0.005435801312089972}</t>
   </si>
   <si>
     <t>{597.0: 1.0}</t>
@@ -2230,10 +2233,10 @@
     <t>{599.0: 1.0}</t>
   </si>
   <si>
-    <t>{603.0: 0.8623827909542195, 617.0: 0.13761720904578048}</t>
-  </si>
-  <si>
-    <t>{604.0: 0.7620095020848969, 837.0: 0.16928820783876697, 922.0: 0.06870229007633588}</t>
+    <t>{603.0: 0.8619640387275243, 617.0: 0.1380359612724758}</t>
+  </si>
+  <si>
+    <t>{604.0: 0.7626932134522454, 837.0: 0.1693456214992105, 922.0: 0.06796116504854369}</t>
   </si>
   <si>
     <t>{606.0: 1.0}</t>
@@ -2245,7 +2248,7 @@
     <t>{613.0: 1.0}</t>
   </si>
   <si>
-    <t>{305.0: 0.8292882465230433, 615.0: 0.019634578674665937, 698.0: 0.0109080992637033, 832.0: 0.14016907553858743}</t>
+    <t>{305.0: 0.8292882465230433, 615.0: 0.01963457867466594, 698.0: 0.0109080992637033, 832.0: 0.1401690755385874}</t>
   </si>
   <si>
     <t>{615.0: 1.0}</t>
@@ -2254,13 +2257,13 @@
     <t>{617.0: 1.0}</t>
   </si>
   <si>
-    <t>{246.0: 0.987024483063915, 789.0: 0.012975516936084949}</t>
-  </si>
-  <si>
-    <t>{619.0: 0.9655096441914438, 887.0: 0.013007925875422115, 861.0: 0.021466746056462076, 253.0: 1.5683876672083762e-05}</t>
-  </si>
-  <si>
-    <t>{620.0: 0.9954229530428885, 785.0: 0.004577046957111375}</t>
+    <t>{246.0: 0.9870235970064315, 789.0: 0.012976402993568508}</t>
+  </si>
+  <si>
+    <t>{619.0: 0.9654101869025539, 887.0: 0.01304608360679127, 861.0: 0.021528000860446848, 253.0: 1.5728630208029214e-05}</t>
+  </si>
+  <si>
+    <t>{620.0: 0.9954229530428886, 785.0: 0.004577046957111375}</t>
   </si>
   <si>
     <t>{623.0: 1.0}</t>
@@ -2269,9 +2272,6 @@
     <t>{629.0: 1.0}</t>
   </si>
   <si>
-    <t>{603.0: 0.8623827909542197, 617.0: 0.13761720904578048}</t>
-  </si>
-  <si>
     <t>{226.0: 0.5, 729.0: 0.5}</t>
   </si>
   <si>
@@ -2287,19 +2287,19 @@
     <t>{615.0: 0.585884524498907, 698.0: 0.12135505202398524, 751.0: 0.2927604234771076}</t>
   </si>
   <si>
-    <t>{687.0: 0.7078576225654801, 534.0: 0.29214237743451976}</t>
+    <t>{687.0: 0.7092245989304813, 534.0: 0.29077540106951866}</t>
   </si>
   <si>
     <t>{691.0: 1.0}</t>
   </si>
   <si>
-    <t>{86.0: 0.9488141498057082, 165.0: 0.04194023850998258, 433.0: 0.00924561168430926}</t>
-  </si>
-  <si>
-    <t>{298.0: 0.7213799011643242, 857.0: 0.2786200988356758}</t>
-  </si>
-  <si>
-    <t>{696.0: 0.9840861597813856, 492.0: 0.01591384021861437}</t>
+    <t>{86.0: 0.9488141498057083, 165.0: 0.04194023850998258, 433.0: 0.00924561168430926}</t>
+  </si>
+  <si>
+    <t>{298.0: 0.7214598032652256, 857.0: 0.2785401967347743}</t>
+  </si>
+  <si>
+    <t>{696.0: 0.9841142490372271, 492.0: 0.015885750962772786}</t>
   </si>
   <si>
     <t>{698.0: 1.0}</t>
@@ -2308,7 +2308,7 @@
     <t>{702.0: 1.0}</t>
   </si>
   <si>
-    <t>{704.0: 0.9874529485570892, 481.0: 0.012547051442910916}</t>
+    <t>{704.0: 0.9874529485570893, 481.0: 0.012547051442910916}</t>
   </si>
   <si>
     <t>{707.0: 1.0}</t>
@@ -2317,43 +2317,43 @@
     <t>{729.0: 1.0}</t>
   </si>
   <si>
-    <t>{730.0: 0.8502549837737599, 289.0: 0.14974501622624015}</t>
-  </si>
-  <si>
-    <t>{733.0: 0.9015677890611086, 147.0: 0.09843221093889182}</t>
-  </si>
-  <si>
-    <t>{888.0: 0.994343891402715, 73.0: 0.005656108597285069}</t>
+    <t>{730.0: 0.8502549837737599, 289.0: 0.14974501622624017}</t>
+  </si>
+  <si>
+    <t>{733.0: 0.9015677890611088, 147.0: 0.09843221093889182}</t>
+  </si>
+  <si>
+    <t>{888.0: 0.9944567627494456, 73.0: 0.005543237250554325}</t>
   </si>
   <si>
     <t>{735.0: 1.0}</t>
   </si>
   <si>
-    <t>{737.0: 0.9266375545851528, 223.0: 0.03580786026200873, 428.0: 0.03755458515283843}</t>
+    <t>{737.0: 0.9279588336192108, 223.0: 0.03516295025728988, 428.0: 0.03687821612349914}</t>
   </si>
   <si>
     <t>{738.0: 1.0}</t>
   </si>
   <si>
-    <t>{740.0: 0.701123595505618, 789.0: 0.2817308042745055, 246.0: 0.017145600219876624}</t>
-  </si>
-  <si>
-    <t>{741.0: 0.8859583153113909, 90.0: 0.09275598362042739, 789.0: 0.0044006937901610544, 246.0: 0.016885007278020378}</t>
+    <t>{740.0: 0.701123595505618, 789.0: 0.2817500427902968, 246.0: 0.017126361704085165}</t>
+  </si>
+  <si>
+    <t>{741.0: 0.8859583153113908, 90.0: 0.0927559836204274, 789.0: 0.0044006937901610544, 246.0: 0.016885007278020378}</t>
   </si>
   <si>
     <t>{757.0: 1.0}</t>
   </si>
   <si>
-    <t>{746.0: 0.9899854627685352, 691.0: 0.01001453723146503}</t>
-  </si>
-  <si>
-    <t>{298.0: 0.5626309174696271, 476.0: 0.2037440832007895, 595.0: 0.037144060913161095, 534.0: 0.19648093841642228}</t>
+    <t>{746.0: 0.9899854627685349, 691.0: 0.01001453723146503}</t>
+  </si>
+  <si>
+    <t>{298.0: 0.5626309174696271, 476.0: 0.20377048267549683, 595.0: 0.037117661438453804, 534.0: 0.19648093841642228}</t>
   </si>
   <si>
     <t>{751.0: 1.0}</t>
   </si>
   <si>
-    <t>{754.0: 0.9200087710787181, 917.0: 0.07999122892128212}</t>
+    <t>{754.0: 0.8492529563266304, 917.0: 0.15074704367336975}</t>
   </si>
   <si>
     <t>{760.0: 0.7957918248415948, 761.0: 0.20420817515840517}</t>
@@ -2362,7 +2362,7 @@
     <t>{761.0: 1.0}</t>
   </si>
   <si>
-    <t>{141.0: 0.9420988600009013, 762.0: 0.057901139999098815}</t>
+    <t>{141.0: 0.9421837681943133, 762.0: 0.05781623180568697}</t>
   </si>
   <si>
     <t>{764.0: 1.0}</t>
@@ -2371,19 +2371,19 @@
     <t>{767.0: 1.0}</t>
   </si>
   <si>
-    <t>{772.0: 0.9882429784454608, 493.0: 0.011552824787393206, 108.0: 0.000201729835607958, 144.0: 2.46693153835297e-06}</t>
-  </si>
-  <si>
-    <t>{773.0: 0.8230245634803199, 757.0: 0.17697543651968028}</t>
-  </si>
-  <si>
-    <t>{778.0: 0.9784971368470256, 171.0: 0.019400059612387836, 184.0: 0.0004353696538871635, 593.0: 0.0016674338866991749}</t>
+    <t>{772.0: 0.9882429784454607, 493.0: 0.011552824787393208, 108.0: 0.0002017298356079579, 144.0: 2.46693153835297e-06}</t>
+  </si>
+  <si>
+    <t>{773.0: 0.8230245634803196, 757.0: 0.17697543651968034}</t>
+  </si>
+  <si>
+    <t>{778.0: 0.9790504383468065, 171.0: 0.018900952703514936, 184.0: 0.0004239793978974138, 593.0: 0.0016246295517813182}</t>
   </si>
   <si>
     <t>{780.0: 1.0}</t>
   </si>
   <si>
-    <t>{782.0: 0.9974744701877677, 168.0: 0.001756890304161634, 930.0: 0.0007686395080707148}</t>
+    <t>{782.0: 0.997486613484865, 168.0: 0.001748442793137362, 930.0: 0.0007649437219975958}</t>
   </si>
   <si>
     <t>{785.0: 1.0}</t>
@@ -2392,34 +2392,34 @@
     <t>{204.0: 1.0}</t>
   </si>
   <si>
-    <t>{277.0: 0.9637501241434103, 180.0: 0.03624987585658953}</t>
-  </si>
-  <si>
-    <t>{789.0: 0.9426331421214654, 246.0: 0.05736685787853457}</t>
+    <t>{277.0: 0.9637501241434099, 180.0: 0.03624987585658953}</t>
+  </si>
+  <si>
+    <t>{789.0: 0.9426975115915948, 246.0: 0.05730248840840527}</t>
   </si>
   <si>
     <t>{832.0: 1.0}</t>
   </si>
   <si>
-    <t>{835.0: 0.9912131519274378, 836.0: 0.008786848072562359}</t>
-  </si>
-  <si>
-    <t>{836.0: 0.9918426103646834, 835.0: 0.008157389635316698}</t>
-  </si>
-  <si>
-    <t>{837.0: 0.9689657749414814, 486.0: 0.03103422505851864}</t>
-  </si>
-  <si>
-    <t>{838.0: 0.9032978861255628, 19.0: 0.08895370913423661, 423.0: 0.007748404740200546}</t>
+    <t>{835.0: 0.9908743008536943, 836.0: 0.009125699146305566}</t>
+  </si>
+  <si>
+    <t>{836.0: 0.9922515952597994, 835.0: 0.007748404740200547}</t>
+  </si>
+  <si>
+    <t>{837.0: 0.9689657749414813, 486.0: 0.03103422505851864}</t>
+  </si>
+  <si>
+    <t>{838.0: 0.9032978861255628, 19.0: 0.08895370913423661, 423.0: 0.007748404740200547}</t>
   </si>
   <si>
     <t>{227.0: 0.9322033898305085, 686.0: 0.06779661016949153}</t>
   </si>
   <si>
-    <t>{848.0: 0.9943369513921663, 707.0: 0.005663048607833883}</t>
-  </si>
-  <si>
-    <t>{180.0: 0.5086748084256288, 277.0: 0.4913251915743713}</t>
+    <t>{848.0: 0.9943369513921659, 707.0: 0.005663048607833884}</t>
+  </si>
+  <si>
+    <t>{180.0: 0.1291184282474344, 277.0: 0.8708815717525659}</t>
   </si>
   <si>
     <t>{851.0: 0.9234303215926492, 7.0: 0.07656967840735067}</t>
@@ -2428,22 +2428,22 @@
     <t>{853.0: 0.998815512175612, 91.0: 0.0011842683196829334, 92.0: 2.1950470520957514e-07}</t>
   </si>
   <si>
-    <t>{854.0: 0.873273761169781, 976.0: 0.12672623883021933}</t>
+    <t>{854.0: 0.8732737611697808, 976.0: 0.12672623883021933}</t>
   </si>
   <si>
     <t>{857.0: 1.0}</t>
   </si>
   <si>
-    <t>{858.0: 0.9872985781990521, 543.0: 0.012701421800947865}</t>
-  </si>
-  <si>
-    <t>{861.0: 0.9908212213410212, 253.0: 0.0007239065389194395, 490.0: 0.008454872120059184}</t>
+    <t>{858.0: 0.9872985781990521, 543.0: 0.012701421800947871}</t>
+  </si>
+  <si>
+    <t>{861.0: 0.9908122828101357, 253.0: 0.000723900008315515, 490.0: 0.008463817181548879}</t>
   </si>
   <si>
     <t>{863.0: 0.9722739981360671, 10.0: 0.027726001863932898}</t>
   </si>
   <si>
-    <t>{887.0: 0.9991196024500588, 834.0: 0.0008803975499411181}</t>
+    <t>{887.0: 0.999132407847768, 834.0: 0.0008675921522319134}</t>
   </si>
   <si>
     <t>{888.0: 1.0}</t>
@@ -2455,7 +2455,7 @@
     <t>{905.0: 0.9854766589161151, 499.0: 0.014523341083884814}</t>
   </si>
   <si>
-    <t>{782.0: 0.11011414486022413, 930.0: 0.8573483060191541, 404.0: 0.03253754912062153}</t>
+    <t>{782.0: 0.11021464052247713, 930.0: 0.857469242257538, 404.0: 0.032316117219984695}</t>
   </si>
   <si>
     <t>{910.0: 1.0}</t>
@@ -2464,7 +2464,7 @@
     <t>{914.0: 1.0}</t>
   </si>
   <si>
-    <t>{915.0: 0.5124185505583967, 171.0: 0.26032762398046216, 420.0: 0.22725382546114123}</t>
+    <t>{915.0: 0.5204580106136844, 171.0: 0.2557483187470411, 420.0: 0.2237936706392747}</t>
   </si>
   <si>
     <t>{917.0: 1.0}</t>
@@ -2476,13 +2476,13 @@
     <t>{922.0: 1.0}</t>
   </si>
   <si>
-    <t>{141.0: 0.9420988600009008, 762.0: 0.057901139999098815}</t>
-  </si>
-  <si>
-    <t>{3.0: 0.6037465689154068, 418.0: 0.22706767089552463, 922.0: 0.16918576018906853}</t>
-  </si>
-  <si>
-    <t>{929.0: 0.543897130948833, 930.0: 0.45610286905116687}</t>
+    <t>{141.0: 0.9421837681943133, 762.0: 0.057816231805686985}</t>
+  </si>
+  <si>
+    <t>{3.0: 0.6037733799331189, 418.0: 0.2270600978914214, 922.0: 0.1691665221754596}</t>
+  </si>
+  <si>
+    <t>{929.0: 0.5444853873370559, 930.0: 0.455514612662944}</t>
   </si>
   <si>
     <t>{930.0: 1.0}</t>
@@ -2491,34 +2491,34 @@
     <t>{931.0: 1.0}</t>
   </si>
   <si>
-    <t>{249.0: 0.4597890551146008, 702.0: 0.5402109448853992}</t>
-  </si>
-  <si>
-    <t>{934.0: 0.9748517200474495, 5.0: 0.025148279952550416}</t>
+    <t>{249.0: 0.4594861003515297, 702.0: 0.5405138996484705}</t>
+  </si>
+  <si>
+    <t>{934.0: 0.9748517200474496, 5.0: 0.025148279952550416}</t>
   </si>
   <si>
     <t>{935.0: 1.0}</t>
   </si>
   <si>
-    <t>{593.0: 0.9966898258011214, 171.0: 0.0033101741988785177}</t>
-  </si>
-  <si>
-    <t>{910.0: 0.49665686012302757, 497.0: 0.15993581171436216, 731.0: 0.3434073281626103}</t>
-  </si>
-  <si>
-    <t>{785.0: 0.5122362869198313, 206.0: 0.487763713080169}</t>
-  </si>
-  <si>
-    <t>{943.0: 0.9131443726172717, 634.0: 0.08685562738272833}</t>
+    <t>{593.0: 0.9966898178137209, 171.0: 0.003310182186279268}</t>
+  </si>
+  <si>
+    <t>{910.0: 0.49665686012302757, 497.0: 0.15993581171436214, 731.0: 0.3434073281626102}</t>
+  </si>
+  <si>
+    <t>{785.0: 0.4978279756733277, 206.0: 0.5021720243266724}</t>
+  </si>
+  <si>
+    <t>{943.0: 0.9149350649350649, 634.0: 0.08506493506493507}</t>
   </si>
   <si>
     <t>{971.0: 0.9941116231438814, 975.0: 0.005888376856118791}</t>
   </si>
   <si>
-    <t>{139.0: 0.9541375872382851, 615.0: 0.045862412761714856}</t>
-  </si>
-  <si>
-    <t>{973.0: 0.90053557765876, 494.0: 0.09946442234123953}</t>
+    <t>{139.0: 0.9537688442211055, 615.0: 0.046231155778894466}</t>
+  </si>
+  <si>
+    <t>{973.0: 0.9007633587786258, 494.0: 0.09923664122137403}</t>
   </si>
   <si>
     <t>{975.0: 1.0}</t>
@@ -2530,7 +2530,7 @@
     <t>{782.0: 1.0}</t>
   </si>
   <si>
-    <t>{981.0: 0.5954814416352878, 431.0: 0.4045185583647122}</t>
+    <t>{981.0: 0.7119877441593259, 431.0: 0.288012255840674}</t>
   </si>
   <si>
     <t>{989.0: 0.9567945932898866, 249.0: 0.007603186097031138, 495.0: 0.035602220613082304}</t>
@@ -2539,7 +2539,7 @@
     <t>{990.0: 0.9929775280898876, 599.0: 0.007022471910112359}</t>
   </si>
   <si>
-    <t>{497.0: 0.8418645926685597, 910.0: 0.0934917069132394, 731.0: 0.06464370041820106}</t>
+    <t>{497.0: 0.8418645926685596, 910.0: 0.09349170691323938, 731.0: 0.06464370041820106}</t>
   </si>
   <si>
     <t>{410.0: 0.6950792670372656, 729.0: 0.3049207329627342}</t>
@@ -4602,7 +4602,7 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B155" t="s">
         <v>156</v>
@@ -4613,7 +4613,7 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B156" t="s">
         <v>157</v>
@@ -4624,29 +4624,29 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B157" t="s">
         <v>158</v>
       </c>
       <c r="C157" t="s">
-        <v>653</v>
+        <v>158</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B158" t="s">
         <v>159</v>
       </c>
       <c r="C158" t="s">
-        <v>159</v>
+        <v>653</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B159" t="s">
         <v>160</v>
@@ -4657,106 +4657,106 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B160" t="s">
         <v>161</v>
       </c>
       <c r="C160" t="s">
-        <v>654</v>
+        <v>161</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B161" t="s">
         <v>162</v>
       </c>
       <c r="C161" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B162" t="s">
         <v>163</v>
       </c>
       <c r="C162" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B163" t="s">
         <v>164</v>
       </c>
       <c r="C163" t="s">
-        <v>164</v>
+        <v>656</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B164" t="s">
         <v>165</v>
       </c>
       <c r="C164" t="s">
-        <v>657</v>
+        <v>165</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B165" t="s">
         <v>166</v>
       </c>
       <c r="C165" t="s">
-        <v>166</v>
+        <v>657</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B166" t="s">
         <v>167</v>
       </c>
       <c r="C166" t="s">
-        <v>658</v>
+        <v>167</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B167" t="s">
         <v>168</v>
       </c>
       <c r="C167" t="s">
-        <v>640</v>
+        <v>658</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B168" t="s">
         <v>169</v>
       </c>
       <c r="C168" t="s">
-        <v>169</v>
+        <v>640</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B169" t="s">
         <v>170</v>
@@ -4767,7 +4767,7 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B170" t="s">
         <v>171</v>
@@ -4778,7 +4778,7 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B171" t="s">
         <v>172</v>
@@ -4789,7 +4789,7 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B172" t="s">
         <v>173</v>
@@ -4800,7 +4800,7 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B173" t="s">
         <v>174</v>
@@ -4811,7 +4811,7 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B174" t="s">
         <v>175</v>
@@ -4822,62 +4822,62 @@
     </row>
     <row r="175" spans="1:3">
       <c r="A175">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B175" t="s">
         <v>176</v>
       </c>
       <c r="C175" t="s">
-        <v>659</v>
+        <v>176</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B176" t="s">
         <v>177</v>
       </c>
       <c r="C176" t="s">
-        <v>640</v>
+        <v>659</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B177" t="s">
         <v>178</v>
       </c>
       <c r="C177" t="s">
-        <v>660</v>
+        <v>640</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B178" t="s">
         <v>179</v>
       </c>
       <c r="C178" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B179" t="s">
         <v>180</v>
       </c>
       <c r="C179" t="s">
-        <v>180</v>
+        <v>661</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B180" t="s">
         <v>181</v>
@@ -4888,29 +4888,29 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B181" t="s">
         <v>182</v>
       </c>
       <c r="C181" t="s">
-        <v>662</v>
+        <v>182</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B182" t="s">
         <v>183</v>
       </c>
       <c r="C182" t="s">
-        <v>183</v>
+        <v>662</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B183" t="s">
         <v>184</v>
@@ -4921,62 +4921,62 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B184" t="s">
         <v>185</v>
       </c>
       <c r="C184" t="s">
-        <v>663</v>
+        <v>185</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B185" t="s">
         <v>186</v>
       </c>
       <c r="C185" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B186" t="s">
         <v>187</v>
       </c>
       <c r="C186" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B187" t="s">
         <v>188</v>
       </c>
       <c r="C187" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B188" t="s">
         <v>189</v>
       </c>
       <c r="C188" t="s">
-        <v>189</v>
+        <v>666</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B189" t="s">
         <v>190</v>
@@ -4987,7 +4987,7 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B190" t="s">
         <v>191</v>
@@ -4998,29 +4998,29 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B191" t="s">
         <v>192</v>
       </c>
       <c r="C191" t="s">
-        <v>631</v>
+        <v>192</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B192" t="s">
         <v>193</v>
       </c>
       <c r="C192" t="s">
-        <v>193</v>
+        <v>631</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B193" t="s">
         <v>194</v>
@@ -5031,7 +5031,7 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B194" t="s">
         <v>195</v>
@@ -5042,117 +5042,117 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B195" t="s">
         <v>196</v>
       </c>
       <c r="C195" t="s">
-        <v>667</v>
+        <v>196</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B196" t="s">
         <v>197</v>
       </c>
       <c r="C196" t="s">
-        <v>197</v>
+        <v>667</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B197" t="s">
         <v>198</v>
       </c>
       <c r="C197" t="s">
-        <v>668</v>
+        <v>198</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B198" t="s">
         <v>199</v>
       </c>
       <c r="C198" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B199" t="s">
         <v>200</v>
       </c>
       <c r="C199" t="s">
-        <v>200</v>
+        <v>669</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B200" t="s">
         <v>201</v>
       </c>
       <c r="C200" t="s">
-        <v>670</v>
+        <v>201</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B201" t="s">
         <v>202</v>
       </c>
       <c r="C201" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B202" t="s">
         <v>203</v>
       </c>
       <c r="C202" t="s">
-        <v>203</v>
+        <v>671</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B203" t="s">
         <v>204</v>
       </c>
       <c r="C203" t="s">
-        <v>605</v>
+        <v>204</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B204" t="s">
         <v>205</v>
       </c>
       <c r="C204" t="s">
-        <v>205</v>
+        <v>605</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B205" t="s">
         <v>206</v>
@@ -5163,7 +5163,7 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B206" t="s">
         <v>207</v>
@@ -5174,29 +5174,29 @@
     </row>
     <row r="207" spans="1:3">
       <c r="A207">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B207" t="s">
         <v>208</v>
       </c>
       <c r="C207" t="s">
-        <v>672</v>
+        <v>208</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B208" t="s">
         <v>209</v>
       </c>
       <c r="C208" t="s">
-        <v>209</v>
+        <v>672</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B209" t="s">
         <v>210</v>
@@ -5207,7 +5207,7 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B210" t="s">
         <v>211</v>
@@ -5218,7 +5218,7 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B211" t="s">
         <v>212</v>
@@ -5229,62 +5229,62 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B212" t="s">
         <v>213</v>
       </c>
       <c r="C212" t="s">
-        <v>673</v>
+        <v>213</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B213" t="s">
         <v>214</v>
       </c>
       <c r="C213" t="s">
-        <v>214</v>
+        <v>673</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B214" t="s">
         <v>215</v>
       </c>
       <c r="C214" t="s">
-        <v>674</v>
+        <v>215</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B215" t="s">
         <v>216</v>
       </c>
       <c r="C215" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B216" t="s">
         <v>217</v>
       </c>
       <c r="C216" t="s">
-        <v>217</v>
+        <v>675</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B217" t="s">
         <v>218</v>
@@ -5295,51 +5295,51 @@
     </row>
     <row r="218" spans="1:3">
       <c r="A218">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B218" t="s">
         <v>219</v>
       </c>
       <c r="C218" t="s">
-        <v>676</v>
+        <v>219</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B219" t="s">
         <v>220</v>
       </c>
       <c r="C219" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B220" t="s">
         <v>221</v>
       </c>
       <c r="C220" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B221" t="s">
         <v>222</v>
       </c>
       <c r="C221" t="s">
-        <v>222</v>
+        <v>678</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B222" t="s">
         <v>223</v>
@@ -5350,51 +5350,51 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B223" t="s">
         <v>224</v>
       </c>
       <c r="C223" t="s">
-        <v>679</v>
+        <v>224</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B224" t="s">
         <v>225</v>
       </c>
       <c r="C224" t="s">
-        <v>225</v>
+        <v>679</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B225" t="s">
         <v>226</v>
       </c>
       <c r="C225" t="s">
-        <v>680</v>
+        <v>226</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B226" t="s">
         <v>227</v>
       </c>
       <c r="C226" t="s">
-        <v>227</v>
+        <v>680</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B227" t="s">
         <v>228</v>
@@ -5405,7 +5405,7 @@
     </row>
     <row r="228" spans="1:3">
       <c r="A228">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B228" t="s">
         <v>229</v>
@@ -6170,7 +6170,7 @@
         <v>298</v>
       </c>
       <c r="C297" t="s">
-        <v>665</v>
+        <v>714</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -6192,7 +6192,7 @@
         <v>300</v>
       </c>
       <c r="C299" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -6203,7 +6203,7 @@
         <v>301</v>
       </c>
       <c r="C300" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -6236,7 +6236,7 @@
         <v>304</v>
       </c>
       <c r="C303" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -6247,7 +6247,7 @@
         <v>305</v>
       </c>
       <c r="C304" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -6313,7 +6313,7 @@
         <v>311</v>
       </c>
       <c r="C310" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -6324,7 +6324,7 @@
         <v>312</v>
       </c>
       <c r="C311" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -6335,7 +6335,7 @@
         <v>313</v>
       </c>
       <c r="C312" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -6368,7 +6368,7 @@
         <v>316</v>
       </c>
       <c r="C315" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -6390,7 +6390,7 @@
         <v>318</v>
       </c>
       <c r="C317" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -6401,7 +6401,7 @@
         <v>319</v>
       </c>
       <c r="C318" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -6423,7 +6423,7 @@
         <v>321</v>
       </c>
       <c r="C320" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -6467,7 +6467,7 @@
         <v>325</v>
       </c>
       <c r="C324" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -6478,7 +6478,7 @@
         <v>326</v>
       </c>
       <c r="C325" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -6489,7 +6489,7 @@
         <v>327</v>
       </c>
       <c r="C326" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -6500,7 +6500,7 @@
         <v>328</v>
       </c>
       <c r="C327" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -6566,7 +6566,7 @@
         <v>334</v>
       </c>
       <c r="C333" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -6599,7 +6599,7 @@
         <v>337</v>
       </c>
       <c r="C336" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -6610,7 +6610,7 @@
         <v>338</v>
       </c>
       <c r="C337" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -6632,7 +6632,7 @@
         <v>340</v>
       </c>
       <c r="C339" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -6654,7 +6654,7 @@
         <v>342</v>
       </c>
       <c r="C341" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -6687,7 +6687,7 @@
         <v>345</v>
       </c>
       <c r="C344" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -6742,7 +6742,7 @@
         <v>350</v>
       </c>
       <c r="C349" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -6775,7 +6775,7 @@
         <v>353</v>
       </c>
       <c r="C352" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -6786,7 +6786,7 @@
         <v>354</v>
       </c>
       <c r="C353" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -6797,7 +6797,7 @@
         <v>355</v>
       </c>
       <c r="C354" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -6841,7 +6841,7 @@
         <v>359</v>
       </c>
       <c r="C358" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -6852,7 +6852,7 @@
         <v>360</v>
       </c>
       <c r="C359" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -6874,7 +6874,7 @@
         <v>362</v>
       </c>
       <c r="C361" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -6940,7 +6940,7 @@
         <v>368</v>
       </c>
       <c r="C367" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -6951,7 +6951,7 @@
         <v>369</v>
       </c>
       <c r="C368" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -6962,7 +6962,7 @@
         <v>370</v>
       </c>
       <c r="C369" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -6973,7 +6973,7 @@
         <v>371</v>
       </c>
       <c r="C370" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -6995,7 +6995,7 @@
         <v>373</v>
       </c>
       <c r="C372" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -7006,7 +7006,7 @@
         <v>374</v>
       </c>
       <c r="C373" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -7017,7 +7017,7 @@
         <v>375</v>
       </c>
       <c r="C374" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -7028,7 +7028,7 @@
         <v>376</v>
       </c>
       <c r="C375" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -7061,7 +7061,7 @@
         <v>379</v>
       </c>
       <c r="C378" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -7127,7 +7127,7 @@
         <v>385</v>
       </c>
       <c r="C384" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -7138,7 +7138,7 @@
         <v>386</v>
       </c>
       <c r="C385" t="s">
-        <v>751</v>
+        <v>739</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -7149,7 +7149,7 @@
         <v>387</v>
       </c>
       <c r="C386" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -7534,7 +7534,7 @@
         <v>422</v>
       </c>
       <c r="C421" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="422" spans="1:3">
@@ -7776,7 +7776,7 @@
         <v>444</v>
       </c>
       <c r="C443" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="444" spans="1:3">
@@ -7842,7 +7842,7 @@
         <v>450</v>
       </c>
       <c r="C449" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="450" spans="1:3">
@@ -8744,7 +8744,7 @@
         <v>532</v>
       </c>
       <c r="C531" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="532" spans="1:3">
@@ -8788,7 +8788,7 @@
         <v>536</v>
       </c>
       <c r="C535" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="536" spans="1:3">
@@ -9140,7 +9140,7 @@
         <v>568</v>
       </c>
       <c r="C567" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="568" spans="1:3">
